--- a/ns-3/BeaconRAWTimings.xlsx
+++ b/ns-3/BeaconRAWTimings.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t xml:space="preserve">Beacon interval</t>
   </si>
@@ -72,6 +72,9 @@
   <si>
     <t xml:space="preserve">End of RAW</t>
   </si>
+  <si>
+    <t xml:space="preserve">Drop</t>
+  </si>
 </sst>
 </file>
 
@@ -114,7 +117,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -125,6 +128,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF99"/>
         <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99FF66"/>
+        <bgColor rgb="FF99CC00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -163,7 +178,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -192,6 +207,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -202,6 +225,66 @@
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
     <cellStyle name="Slot 0" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF99FF66"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -212,8 +295,8 @@
   </sheetPr>
   <dimension ref="A1:Q502"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A98" activeCellId="0" sqref="A98:K98"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A62" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F87" activeCellId="0" sqref="F87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
@@ -370,8 +453,8 @@
         <v>39880</v>
       </c>
       <c r="I8" s="1" t="n">
-        <f aca="false">B8+$C$4*4</f>
-        <v>79760</v>
+        <f aca="false">B8+$C$4*3</f>
+        <v>59820</v>
       </c>
       <c r="J8" s="1" t="n">
         <f aca="false">B8+$C$4*4</f>
@@ -423,8 +506,8 @@
         <v>142280</v>
       </c>
       <c r="I9" s="1" t="n">
-        <f aca="false">B9+$C$4*4</f>
-        <v>182160</v>
+        <f aca="false">B9+$C$4*3</f>
+        <v>162220</v>
       </c>
       <c r="J9" s="1" t="n">
         <f aca="false">B9+$C$4*4</f>
@@ -479,8 +562,8 @@
         <v>244680</v>
       </c>
       <c r="I10" s="1" t="n">
-        <f aca="false">B10+$C$4*4</f>
-        <v>284560</v>
+        <f aca="false">B10+$C$4*3</f>
+        <v>264620</v>
       </c>
       <c r="J10" s="1" t="n">
         <f aca="false">B10+$C$4*4</f>
@@ -535,8 +618,8 @@
         <v>347080</v>
       </c>
       <c r="I11" s="1" t="n">
-        <f aca="false">B11+$C$4*4</f>
-        <v>386960</v>
+        <f aca="false">B11+$C$4*3</f>
+        <v>367020</v>
       </c>
       <c r="J11" s="1" t="n">
         <f aca="false">B11+$C$4*4</f>
@@ -591,8 +674,8 @@
         <v>449480</v>
       </c>
       <c r="I12" s="1" t="n">
-        <f aca="false">B12+$C$4*4</f>
-        <v>489360</v>
+        <f aca="false">B12+$C$4*3</f>
+        <v>469420</v>
       </c>
       <c r="J12" s="1" t="n">
         <f aca="false">B12+$C$4*4</f>
@@ -647,8 +730,8 @@
         <v>551880</v>
       </c>
       <c r="I13" s="1" t="n">
-        <f aca="false">B13+$C$4*4</f>
-        <v>591760</v>
+        <f aca="false">B13+$C$4*3</f>
+        <v>571820</v>
       </c>
       <c r="J13" s="1" t="n">
         <f aca="false">B13+$C$4*4</f>
@@ -703,8 +786,8 @@
         <v>654280</v>
       </c>
       <c r="I14" s="1" t="n">
-        <f aca="false">B14+$C$4*4</f>
-        <v>694160</v>
+        <f aca="false">B14+$C$4*3</f>
+        <v>674220</v>
       </c>
       <c r="J14" s="1" t="n">
         <f aca="false">B14+$C$4*4</f>
@@ -759,8 +842,8 @@
         <v>756680</v>
       </c>
       <c r="I15" s="1" t="n">
-        <f aca="false">B15+$C$4*4</f>
-        <v>796560</v>
+        <f aca="false">B15+$C$4*3</f>
+        <v>776620</v>
       </c>
       <c r="J15" s="1" t="n">
         <f aca="false">B15+$C$4*4</f>
@@ -815,8 +898,8 @@
         <v>859080</v>
       </c>
       <c r="I16" s="1" t="n">
-        <f aca="false">B16+$C$4*4</f>
-        <v>898960</v>
+        <f aca="false">B16+$C$4*3</f>
+        <v>879020</v>
       </c>
       <c r="J16" s="1" t="n">
         <f aca="false">B16+$C$4*4</f>
@@ -871,8 +954,8 @@
         <v>961480</v>
       </c>
       <c r="I17" s="1" t="n">
-        <f aca="false">B17+$C$4*4</f>
-        <v>1001360</v>
+        <f aca="false">B17+$C$4*3</f>
+        <v>981420</v>
       </c>
       <c r="J17" s="1" t="n">
         <f aca="false">B17+$C$4*4</f>
@@ -927,8 +1010,8 @@
         <v>1063880</v>
       </c>
       <c r="I18" s="1" t="n">
-        <f aca="false">B18+$C$4*4</f>
-        <v>1103760</v>
+        <f aca="false">B18+$C$4*3</f>
+        <v>1083820</v>
       </c>
       <c r="J18" s="1" t="n">
         <f aca="false">B18+$C$4*4</f>
@@ -983,8 +1066,8 @@
         <v>1166280</v>
       </c>
       <c r="I19" s="1" t="n">
-        <f aca="false">B19+$C$4*4</f>
-        <v>1206160</v>
+        <f aca="false">B19+$C$4*3</f>
+        <v>1186220</v>
       </c>
       <c r="J19" s="1" t="n">
         <f aca="false">B19+$C$4*4</f>
@@ -1039,8 +1122,8 @@
         <v>1268680</v>
       </c>
       <c r="I20" s="1" t="n">
-        <f aca="false">B20+$C$4*4</f>
-        <v>1308560</v>
+        <f aca="false">B20+$C$4*3</f>
+        <v>1288620</v>
       </c>
       <c r="J20" s="1" t="n">
         <f aca="false">B20+$C$4*4</f>
@@ -1095,8 +1178,8 @@
         <v>1371080</v>
       </c>
       <c r="I21" s="1" t="n">
-        <f aca="false">B21+$C$4*4</f>
-        <v>1410960</v>
+        <f aca="false">B21+$C$4*3</f>
+        <v>1391020</v>
       </c>
       <c r="J21" s="1" t="n">
         <f aca="false">B21+$C$4*4</f>
@@ -1151,8 +1234,8 @@
         <v>1473480</v>
       </c>
       <c r="I22" s="1" t="n">
-        <f aca="false">B22+$C$4*4</f>
-        <v>1513360</v>
+        <f aca="false">B22+$C$4*3</f>
+        <v>1493420</v>
       </c>
       <c r="J22" s="1" t="n">
         <f aca="false">B22+$C$4*4</f>
@@ -1207,8 +1290,8 @@
         <v>1575880</v>
       </c>
       <c r="I23" s="1" t="n">
-        <f aca="false">B23+$C$4*4</f>
-        <v>1615760</v>
+        <f aca="false">B23+$C$4*3</f>
+        <v>1595820</v>
       </c>
       <c r="J23" s="1" t="n">
         <f aca="false">B23+$C$4*4</f>
@@ -1263,8 +1346,8 @@
         <v>1678280</v>
       </c>
       <c r="I24" s="1" t="n">
-        <f aca="false">B24+$C$4*4</f>
-        <v>1718160</v>
+        <f aca="false">B24+$C$4*3</f>
+        <v>1698220</v>
       </c>
       <c r="J24" s="1" t="n">
         <f aca="false">B24+$C$4*4</f>
@@ -1319,8 +1402,8 @@
         <v>1780680</v>
       </c>
       <c r="I25" s="1" t="n">
-        <f aca="false">B25+$C$4*4</f>
-        <v>1820560</v>
+        <f aca="false">B25+$C$4*3</f>
+        <v>1800620</v>
       </c>
       <c r="J25" s="1" t="n">
         <f aca="false">B25+$C$4*4</f>
@@ -1375,8 +1458,8 @@
         <v>1883080</v>
       </c>
       <c r="I26" s="1" t="n">
-        <f aca="false">B26+$C$4*4</f>
-        <v>1922960</v>
+        <f aca="false">B26+$C$4*3</f>
+        <v>1903020</v>
       </c>
       <c r="J26" s="1" t="n">
         <f aca="false">B26+$C$4*4</f>
@@ -1431,8 +1514,8 @@
         <v>1985480</v>
       </c>
       <c r="I27" s="1" t="n">
-        <f aca="false">B27+$C$4*4</f>
-        <v>2025360</v>
+        <f aca="false">B27+$C$4*3</f>
+        <v>2005420</v>
       </c>
       <c r="J27" s="1" t="n">
         <f aca="false">B27+$C$4*4</f>
@@ -1487,8 +1570,8 @@
         <v>2087880</v>
       </c>
       <c r="I28" s="1" t="n">
-        <f aca="false">B28+$C$4*4</f>
-        <v>2127760</v>
+        <f aca="false">B28+$C$4*3</f>
+        <v>2107820</v>
       </c>
       <c r="J28" s="1" t="n">
         <f aca="false">B28+$C$4*4</f>
@@ -1543,8 +1626,8 @@
         <v>2190280</v>
       </c>
       <c r="I29" s="1" t="n">
-        <f aca="false">B29+$C$4*4</f>
-        <v>2230160</v>
+        <f aca="false">B29+$C$4*3</f>
+        <v>2210220</v>
       </c>
       <c r="J29" s="1" t="n">
         <f aca="false">B29+$C$4*4</f>
@@ -1584,8 +1667,8 @@
         <v>2292680</v>
       </c>
       <c r="I30" s="1" t="n">
-        <f aca="false">B30+$C$4*4</f>
-        <v>2332560</v>
+        <f aca="false">B30+$C$4*3</f>
+        <v>2312620</v>
       </c>
       <c r="J30" s="1" t="n">
         <f aca="false">B30+$C$4*4</f>
@@ -1625,8 +1708,8 @@
         <v>2395080</v>
       </c>
       <c r="I31" s="1" t="n">
-        <f aca="false">B31+$C$4*4</f>
-        <v>2434960</v>
+        <f aca="false">B31+$C$4*3</f>
+        <v>2415020</v>
       </c>
       <c r="J31" s="1" t="n">
         <f aca="false">B31+$C$4*4</f>
@@ -1666,8 +1749,8 @@
         <v>2497480</v>
       </c>
       <c r="I32" s="1" t="n">
-        <f aca="false">B32+$C$4*4</f>
-        <v>2537360</v>
+        <f aca="false">B32+$C$4*3</f>
+        <v>2517420</v>
       </c>
       <c r="J32" s="1" t="n">
         <f aca="false">B32+$C$4*4</f>
@@ -1707,8 +1790,8 @@
         <v>2599880</v>
       </c>
       <c r="I33" s="1" t="n">
-        <f aca="false">B33+$C$4*4</f>
-        <v>2639760</v>
+        <f aca="false">B33+$C$4*3</f>
+        <v>2619820</v>
       </c>
       <c r="J33" s="1" t="n">
         <f aca="false">B33+$C$4*4</f>
@@ -1748,8 +1831,8 @@
         <v>2702280</v>
       </c>
       <c r="I34" s="1" t="n">
-        <f aca="false">B34+$C$4*4</f>
-        <v>2742160</v>
+        <f aca="false">B34+$C$4*3</f>
+        <v>2722220</v>
       </c>
       <c r="J34" s="1" t="n">
         <f aca="false">B34+$C$4*4</f>
@@ -1789,8 +1872,8 @@
         <v>2804680</v>
       </c>
       <c r="I35" s="1" t="n">
-        <f aca="false">B35+$C$4*4</f>
-        <v>2844560</v>
+        <f aca="false">B35+$C$4*3</f>
+        <v>2824620</v>
       </c>
       <c r="J35" s="1" t="n">
         <f aca="false">B35+$C$4*4</f>
@@ -1830,8 +1913,8 @@
         <v>2907080</v>
       </c>
       <c r="I36" s="1" t="n">
-        <f aca="false">B36+$C$4*4</f>
-        <v>2946960</v>
+        <f aca="false">B36+$C$4*3</f>
+        <v>2927020</v>
       </c>
       <c r="J36" s="1" t="n">
         <f aca="false">B36+$C$4*4</f>
@@ -1871,8 +1954,8 @@
         <v>3009480</v>
       </c>
       <c r="I37" s="1" t="n">
-        <f aca="false">B37+$C$4*4</f>
-        <v>3049360</v>
+        <f aca="false">B37+$C$4*3</f>
+        <v>3029420</v>
       </c>
       <c r="J37" s="1" t="n">
         <f aca="false">B37+$C$4*4</f>
@@ -1912,8 +1995,8 @@
         <v>3111880</v>
       </c>
       <c r="I38" s="1" t="n">
-        <f aca="false">B38+$C$4*4</f>
-        <v>3151760</v>
+        <f aca="false">B38+$C$4*3</f>
+        <v>3131820</v>
       </c>
       <c r="J38" s="1" t="n">
         <f aca="false">B38+$C$4*4</f>
@@ -1953,8 +2036,8 @@
         <v>3214280</v>
       </c>
       <c r="I39" s="1" t="n">
-        <f aca="false">B39+$C$4*4</f>
-        <v>3254160</v>
+        <f aca="false">B39+$C$4*3</f>
+        <v>3234220</v>
       </c>
       <c r="J39" s="1" t="n">
         <f aca="false">B39+$C$4*4</f>
@@ -1994,8 +2077,8 @@
         <v>3316680</v>
       </c>
       <c r="I40" s="1" t="n">
-        <f aca="false">B40+$C$4*4</f>
-        <v>3356560</v>
+        <f aca="false">B40+$C$4*3</f>
+        <v>3336620</v>
       </c>
       <c r="J40" s="1" t="n">
         <f aca="false">B40+$C$4*4</f>
@@ -2035,8 +2118,8 @@
         <v>3419080</v>
       </c>
       <c r="I41" s="1" t="n">
-        <f aca="false">B41+$C$4*4</f>
-        <v>3458960</v>
+        <f aca="false">B41+$C$4*3</f>
+        <v>3439020</v>
       </c>
       <c r="J41" s="1" t="n">
         <f aca="false">B41+$C$4*4</f>
@@ -2076,8 +2159,8 @@
         <v>3521480</v>
       </c>
       <c r="I42" s="1" t="n">
-        <f aca="false">B42+$C$4*4</f>
-        <v>3561360</v>
+        <f aca="false">B42+$C$4*3</f>
+        <v>3541420</v>
       </c>
       <c r="J42" s="1" t="n">
         <f aca="false">B42+$C$4*4</f>
@@ -2117,8 +2200,8 @@
         <v>3623880</v>
       </c>
       <c r="I43" s="1" t="n">
-        <f aca="false">B43+$C$4*4</f>
-        <v>3663760</v>
+        <f aca="false">B43+$C$4*3</f>
+        <v>3643820</v>
       </c>
       <c r="J43" s="1" t="n">
         <f aca="false">B43+$C$4*4</f>
@@ -2158,8 +2241,8 @@
         <v>3726280</v>
       </c>
       <c r="I44" s="1" t="n">
-        <f aca="false">B44+$C$4*4</f>
-        <v>3766160</v>
+        <f aca="false">B44+$C$4*3</f>
+        <v>3746220</v>
       </c>
       <c r="J44" s="1" t="n">
         <f aca="false">B44+$C$4*4</f>
@@ -2199,8 +2282,8 @@
         <v>3828680</v>
       </c>
       <c r="I45" s="1" t="n">
-        <f aca="false">B45+$C$4*4</f>
-        <v>3868560</v>
+        <f aca="false">B45+$C$4*3</f>
+        <v>3848620</v>
       </c>
       <c r="J45" s="1" t="n">
         <f aca="false">B45+$C$4*4</f>
@@ -2240,8 +2323,8 @@
         <v>3931080</v>
       </c>
       <c r="I46" s="1" t="n">
-        <f aca="false">B46+$C$4*4</f>
-        <v>3970960</v>
+        <f aca="false">B46+$C$4*3</f>
+        <v>3951020</v>
       </c>
       <c r="J46" s="1" t="n">
         <f aca="false">B46+$C$4*4</f>
@@ -2281,8 +2364,8 @@
         <v>4033480</v>
       </c>
       <c r="I47" s="1" t="n">
-        <f aca="false">B47+$C$4*4</f>
-        <v>4073360</v>
+        <f aca="false">B47+$C$4*3</f>
+        <v>4053420</v>
       </c>
       <c r="J47" s="1" t="n">
         <f aca="false">B47+$C$4*4</f>
@@ -2322,8 +2405,8 @@
         <v>4135880</v>
       </c>
       <c r="I48" s="1" t="n">
-        <f aca="false">B48+$C$4*4</f>
-        <v>4175760</v>
+        <f aca="false">B48+$C$4*3</f>
+        <v>4155820</v>
       </c>
       <c r="J48" s="1" t="n">
         <f aca="false">B48+$C$4*4</f>
@@ -2363,8 +2446,8 @@
         <v>4238280</v>
       </c>
       <c r="I49" s="1" t="n">
-        <f aca="false">B49+$C$4*4</f>
-        <v>4278160</v>
+        <f aca="false">B49+$C$4*3</f>
+        <v>4258220</v>
       </c>
       <c r="J49" s="1" t="n">
         <f aca="false">B49+$C$4*4</f>
@@ -2404,8 +2487,8 @@
         <v>4340680</v>
       </c>
       <c r="I50" s="1" t="n">
-        <f aca="false">B50+$C$4*4</f>
-        <v>4380560</v>
+        <f aca="false">B50+$C$4*3</f>
+        <v>4360620</v>
       </c>
       <c r="J50" s="1" t="n">
         <f aca="false">B50+$C$4*4</f>
@@ -2445,8 +2528,8 @@
         <v>4443080</v>
       </c>
       <c r="I51" s="1" t="n">
-        <f aca="false">B51+$C$4*4</f>
-        <v>4482960</v>
+        <f aca="false">B51+$C$4*3</f>
+        <v>4463020</v>
       </c>
       <c r="J51" s="1" t="n">
         <f aca="false">B51+$C$4*4</f>
@@ -2486,8 +2569,8 @@
         <v>4545480</v>
       </c>
       <c r="I52" s="1" t="n">
-        <f aca="false">B52+$C$4*4</f>
-        <v>4585360</v>
+        <f aca="false">B52+$C$4*3</f>
+        <v>4565420</v>
       </c>
       <c r="J52" s="1" t="n">
         <f aca="false">B52+$C$4*4</f>
@@ -2527,8 +2610,8 @@
         <v>4647880</v>
       </c>
       <c r="I53" s="1" t="n">
-        <f aca="false">B53+$C$4*4</f>
-        <v>4687760</v>
+        <f aca="false">B53+$C$4*3</f>
+        <v>4667820</v>
       </c>
       <c r="J53" s="1" t="n">
         <f aca="false">B53+$C$4*4</f>
@@ -2568,8 +2651,8 @@
         <v>4750280</v>
       </c>
       <c r="I54" s="1" t="n">
-        <f aca="false">B54+$C$4*4</f>
-        <v>4790160</v>
+        <f aca="false">B54+$C$4*3</f>
+        <v>4770220</v>
       </c>
       <c r="J54" s="1" t="n">
         <f aca="false">B54+$C$4*4</f>
@@ -2609,8 +2692,8 @@
         <v>4852680</v>
       </c>
       <c r="I55" s="1" t="n">
-        <f aca="false">B55+$C$4*4</f>
-        <v>4892560</v>
+        <f aca="false">B55+$C$4*3</f>
+        <v>4872620</v>
       </c>
       <c r="J55" s="1" t="n">
         <f aca="false">B55+$C$4*4</f>
@@ -2650,8 +2733,8 @@
         <v>4955080</v>
       </c>
       <c r="I56" s="1" t="n">
-        <f aca="false">B56+$C$4*4</f>
-        <v>4994960</v>
+        <f aca="false">B56+$C$4*3</f>
+        <v>4975020</v>
       </c>
       <c r="J56" s="1" t="n">
         <f aca="false">B56+$C$4*4</f>
@@ -2691,8 +2774,8 @@
         <v>5057480</v>
       </c>
       <c r="I57" s="1" t="n">
-        <f aca="false">B57+$C$4*4</f>
-        <v>5097360</v>
+        <f aca="false">B57+$C$4*3</f>
+        <v>5077420</v>
       </c>
       <c r="J57" s="1" t="n">
         <f aca="false">B57+$C$4*4</f>
@@ -2732,8 +2815,8 @@
         <v>5159880</v>
       </c>
       <c r="I58" s="1" t="n">
-        <f aca="false">B58+$C$4*4</f>
-        <v>5199760</v>
+        <f aca="false">B58+$C$4*3</f>
+        <v>5179820</v>
       </c>
       <c r="J58" s="1" t="n">
         <f aca="false">B58+$C$4*4</f>
@@ -2773,8 +2856,8 @@
         <v>5262280</v>
       </c>
       <c r="I59" s="1" t="n">
-        <f aca="false">B59+$C$4*4</f>
-        <v>5302160</v>
+        <f aca="false">B59+$C$4*3</f>
+        <v>5282220</v>
       </c>
       <c r="J59" s="1" t="n">
         <f aca="false">B59+$C$4*4</f>
@@ -2814,8 +2897,8 @@
         <v>5364680</v>
       </c>
       <c r="I60" s="1" t="n">
-        <f aca="false">B60+$C$4*4</f>
-        <v>5404560</v>
+        <f aca="false">B60+$C$4*3</f>
+        <v>5384620</v>
       </c>
       <c r="J60" s="1" t="n">
         <f aca="false">B60+$C$4*4</f>
@@ -2855,8 +2938,8 @@
         <v>5467080</v>
       </c>
       <c r="I61" s="1" t="n">
-        <f aca="false">B61+$C$4*4</f>
-        <v>5506960</v>
+        <f aca="false">B61+$C$4*3</f>
+        <v>5487020</v>
       </c>
       <c r="J61" s="1" t="n">
         <f aca="false">B61+$C$4*4</f>
@@ -2896,8 +2979,8 @@
         <v>5569480</v>
       </c>
       <c r="I62" s="1" t="n">
-        <f aca="false">B62+$C$4*4</f>
-        <v>5609360</v>
+        <f aca="false">B62+$C$4*3</f>
+        <v>5589420</v>
       </c>
       <c r="J62" s="1" t="n">
         <f aca="false">B62+$C$4*4</f>
@@ -2937,8 +3020,8 @@
         <v>5671880</v>
       </c>
       <c r="I63" s="1" t="n">
-        <f aca="false">B63+$C$4*4</f>
-        <v>5711760</v>
+        <f aca="false">B63+$C$4*3</f>
+        <v>5691820</v>
       </c>
       <c r="J63" s="1" t="n">
         <f aca="false">B63+$C$4*4</f>
@@ -2978,8 +3061,8 @@
         <v>5774280</v>
       </c>
       <c r="I64" s="1" t="n">
-        <f aca="false">B64+$C$4*4</f>
-        <v>5814160</v>
+        <f aca="false">B64+$C$4*3</f>
+        <v>5794220</v>
       </c>
       <c r="J64" s="1" t="n">
         <f aca="false">B64+$C$4*4</f>
@@ -3019,8 +3102,8 @@
         <v>5876680</v>
       </c>
       <c r="I65" s="1" t="n">
-        <f aca="false">B65+$C$4*4</f>
-        <v>5916560</v>
+        <f aca="false">B65+$C$4*3</f>
+        <v>5896620</v>
       </c>
       <c r="J65" s="1" t="n">
         <f aca="false">B65+$C$4*4</f>
@@ -3060,8 +3143,8 @@
         <v>5979080</v>
       </c>
       <c r="I66" s="1" t="n">
-        <f aca="false">B66+$C$4*4</f>
-        <v>6018960</v>
+        <f aca="false">B66+$C$4*3</f>
+        <v>5999020</v>
       </c>
       <c r="J66" s="1" t="n">
         <f aca="false">B66+$C$4*4</f>
@@ -3101,8 +3184,8 @@
         <v>6081480</v>
       </c>
       <c r="I67" s="1" t="n">
-        <f aca="false">B67+$C$4*4</f>
-        <v>6121360</v>
+        <f aca="false">B67+$C$4*3</f>
+        <v>6101420</v>
       </c>
       <c r="J67" s="1" t="n">
         <f aca="false">B67+$C$4*4</f>
@@ -3142,8 +3225,8 @@
         <v>6183880</v>
       </c>
       <c r="I68" s="1" t="n">
-        <f aca="false">B68+$C$4*4</f>
-        <v>6223760</v>
+        <f aca="false">B68+$C$4*3</f>
+        <v>6203820</v>
       </c>
       <c r="J68" s="1" t="n">
         <f aca="false">B68+$C$4*4</f>
@@ -3183,8 +3266,8 @@
         <v>6286280</v>
       </c>
       <c r="I69" s="1" t="n">
-        <f aca="false">B69+$C$4*4</f>
-        <v>6326160</v>
+        <f aca="false">B69+$C$4*3</f>
+        <v>6306220</v>
       </c>
       <c r="J69" s="1" t="n">
         <f aca="false">B69+$C$4*4</f>
@@ -3224,8 +3307,8 @@
         <v>6388680</v>
       </c>
       <c r="I70" s="1" t="n">
-        <f aca="false">B70+$C$4*4</f>
-        <v>6428560</v>
+        <f aca="false">B70+$C$4*3</f>
+        <v>6408620</v>
       </c>
       <c r="J70" s="1" t="n">
         <f aca="false">B70+$C$4*4</f>
@@ -3265,8 +3348,8 @@
         <v>6491080</v>
       </c>
       <c r="I71" s="1" t="n">
-        <f aca="false">B71+$C$4*4</f>
-        <v>6530960</v>
+        <f aca="false">B71+$C$4*3</f>
+        <v>6511020</v>
       </c>
       <c r="J71" s="1" t="n">
         <f aca="false">B71+$C$4*4</f>
@@ -3306,8 +3389,8 @@
         <v>6593480</v>
       </c>
       <c r="I72" s="1" t="n">
-        <f aca="false">B72+$C$4*4</f>
-        <v>6633360</v>
+        <f aca="false">B72+$C$4*3</f>
+        <v>6613420</v>
       </c>
       <c r="J72" s="1" t="n">
         <f aca="false">B72+$C$4*4</f>
@@ -3347,8 +3430,8 @@
         <v>6695880</v>
       </c>
       <c r="I73" s="1" t="n">
-        <f aca="false">B73+$C$4*4</f>
-        <v>6735760</v>
+        <f aca="false">B73+$C$4*3</f>
+        <v>6715820</v>
       </c>
       <c r="J73" s="1" t="n">
         <f aca="false">B73+$C$4*4</f>
@@ -3388,8 +3471,8 @@
         <v>6798280</v>
       </c>
       <c r="I74" s="1" t="n">
-        <f aca="false">B74+$C$4*4</f>
-        <v>6838160</v>
+        <f aca="false">B74+$C$4*3</f>
+        <v>6818220</v>
       </c>
       <c r="J74" s="1" t="n">
         <f aca="false">B74+$C$4*4</f>
@@ -3429,8 +3512,8 @@
         <v>6900680</v>
       </c>
       <c r="I75" s="1" t="n">
-        <f aca="false">B75+$C$4*4</f>
-        <v>6940560</v>
+        <f aca="false">B75+$C$4*3</f>
+        <v>6920620</v>
       </c>
       <c r="J75" s="1" t="n">
         <f aca="false">B75+$C$4*4</f>
@@ -3445,7 +3528,7 @@
       <c r="A76" s="0" t="n">
         <v>68</v>
       </c>
-      <c r="B76" s="1" t="n">
+      <c r="B76" s="7" t="n">
         <f aca="false">A76*$C$1</f>
         <v>6963200</v>
       </c>
@@ -3470,8 +3553,8 @@
         <v>7003080</v>
       </c>
       <c r="I76" s="1" t="n">
-        <f aca="false">B76+$C$4*4</f>
-        <v>7042960</v>
+        <f aca="false">B76+$C$4*3</f>
+        <v>7023020</v>
       </c>
       <c r="J76" s="1" t="n">
         <f aca="false">B76+$C$4*4</f>
@@ -3511,8 +3594,8 @@
         <v>7105480</v>
       </c>
       <c r="I77" s="1" t="n">
-        <f aca="false">B77+$C$4*4</f>
-        <v>7145360</v>
+        <f aca="false">B77+$C$4*3</f>
+        <v>7125420</v>
       </c>
       <c r="J77" s="1" t="n">
         <f aca="false">B77+$C$4*4</f>
@@ -3552,8 +3635,8 @@
         <v>7207880</v>
       </c>
       <c r="I78" s="1" t="n">
-        <f aca="false">B78+$C$4*4</f>
-        <v>7247760</v>
+        <f aca="false">B78+$C$4*3</f>
+        <v>7227820</v>
       </c>
       <c r="J78" s="1" t="n">
         <f aca="false">B78+$C$4*4</f>
@@ -3568,7 +3651,7 @@
       <c r="A79" s="0" t="n">
         <v>71</v>
       </c>
-      <c r="B79" s="1" t="n">
+      <c r="B79" s="7" t="n">
         <f aca="false">A79*$C$1</f>
         <v>7270400</v>
       </c>
@@ -3593,10 +3676,10 @@
         <v>7310280</v>
       </c>
       <c r="I79" s="1" t="n">
-        <f aca="false">B79+$C$4*4</f>
-        <v>7350160</v>
-      </c>
-      <c r="J79" s="1" t="n">
+        <f aca="false">B79+$C$4*3</f>
+        <v>7330220</v>
+      </c>
+      <c r="J79" s="7" t="n">
         <f aca="false">B79+$C$4*4</f>
         <v>7350160</v>
       </c>
@@ -3634,8 +3717,8 @@
         <v>7412680</v>
       </c>
       <c r="I80" s="1" t="n">
-        <f aca="false">B80+$C$4*4</f>
-        <v>7452560</v>
+        <f aca="false">B80+$C$4*3</f>
+        <v>7432620</v>
       </c>
       <c r="J80" s="1" t="n">
         <f aca="false">B80+$C$4*4</f>
@@ -3675,8 +3758,8 @@
         <v>7515080</v>
       </c>
       <c r="I81" s="1" t="n">
-        <f aca="false">B81+$C$4*4</f>
-        <v>7554960</v>
+        <f aca="false">B81+$C$4*3</f>
+        <v>7535020</v>
       </c>
       <c r="J81" s="1" t="n">
         <f aca="false">B81+$C$4*4</f>
@@ -3716,8 +3799,8 @@
         <v>7617480</v>
       </c>
       <c r="I82" s="1" t="n">
-        <f aca="false">B82+$C$4*4</f>
-        <v>7657360</v>
+        <f aca="false">B82+$C$4*3</f>
+        <v>7637420</v>
       </c>
       <c r="J82" s="1" t="n">
         <f aca="false">B82+$C$4*4</f>
@@ -3757,8 +3840,8 @@
         <v>7719880</v>
       </c>
       <c r="I83" s="1" t="n">
-        <f aca="false">B83+$C$4*4</f>
-        <v>7759760</v>
+        <f aca="false">B83+$C$4*3</f>
+        <v>7739820</v>
       </c>
       <c r="J83" s="1" t="n">
         <f aca="false">B83+$C$4*4</f>
@@ -3798,8 +3881,8 @@
         <v>7822280</v>
       </c>
       <c r="I84" s="1" t="n">
-        <f aca="false">B84+$C$4*4</f>
-        <v>7862160</v>
+        <f aca="false">B84+$C$4*3</f>
+        <v>7842220</v>
       </c>
       <c r="J84" s="1" t="n">
         <f aca="false">B84+$C$4*4</f>
@@ -3839,8 +3922,8 @@
         <v>7924680</v>
       </c>
       <c r="I85" s="1" t="n">
-        <f aca="false">B85+$C$4*4</f>
-        <v>7964560</v>
+        <f aca="false">B85+$C$4*3</f>
+        <v>7944620</v>
       </c>
       <c r="J85" s="1" t="n">
         <f aca="false">B85+$C$4*4</f>
@@ -3880,8 +3963,8 @@
         <v>8027080</v>
       </c>
       <c r="I86" s="1" t="n">
-        <f aca="false">B86+$C$4*4</f>
-        <v>8066960</v>
+        <f aca="false">B86+$C$4*3</f>
+        <v>8047020</v>
       </c>
       <c r="J86" s="1" t="n">
         <f aca="false">B86+$C$4*4</f>
@@ -3921,8 +4004,8 @@
         <v>8129480</v>
       </c>
       <c r="I87" s="1" t="n">
-        <f aca="false">B87+$C$4*4</f>
-        <v>8169360</v>
+        <f aca="false">B87+$C$4*3</f>
+        <v>8149420</v>
       </c>
       <c r="J87" s="1" t="n">
         <f aca="false">B87+$C$4*4</f>
@@ -3962,8 +4045,8 @@
         <v>8231880</v>
       </c>
       <c r="I88" s="1" t="n">
-        <f aca="false">B88+$C$4*4</f>
-        <v>8271760</v>
+        <f aca="false">B88+$C$4*3</f>
+        <v>8251820</v>
       </c>
       <c r="J88" s="1" t="n">
         <f aca="false">B88+$C$4*4</f>
@@ -4003,8 +4086,8 @@
         <v>8334280</v>
       </c>
       <c r="I89" s="1" t="n">
-        <f aca="false">B89+$C$4*4</f>
-        <v>8374160</v>
+        <f aca="false">B89+$C$4*3</f>
+        <v>8354220</v>
       </c>
       <c r="J89" s="1" t="n">
         <f aca="false">B89+$C$4*4</f>
@@ -4044,8 +4127,8 @@
         <v>8436680</v>
       </c>
       <c r="I90" s="1" t="n">
-        <f aca="false">B90+$C$4*4</f>
-        <v>8476560</v>
+        <f aca="false">B90+$C$4*3</f>
+        <v>8456620</v>
       </c>
       <c r="J90" s="1" t="n">
         <f aca="false">B90+$C$4*4</f>
@@ -4085,8 +4168,8 @@
         <v>8539080</v>
       </c>
       <c r="I91" s="1" t="n">
-        <f aca="false">B91+$C$4*4</f>
-        <v>8578960</v>
+        <f aca="false">B91+$C$4*3</f>
+        <v>8559020</v>
       </c>
       <c r="J91" s="1" t="n">
         <f aca="false">B91+$C$4*4</f>
@@ -4126,8 +4209,8 @@
         <v>8641480</v>
       </c>
       <c r="I92" s="1" t="n">
-        <f aca="false">B92+$C$4*4</f>
-        <v>8681360</v>
+        <f aca="false">B92+$C$4*3</f>
+        <v>8661420</v>
       </c>
       <c r="J92" s="1" t="n">
         <f aca="false">B92+$C$4*4</f>
@@ -4167,8 +4250,8 @@
         <v>8743880</v>
       </c>
       <c r="I93" s="1" t="n">
-        <f aca="false">B93+$C$4*4</f>
-        <v>8783760</v>
+        <f aca="false">B93+$C$4*3</f>
+        <v>8763820</v>
       </c>
       <c r="J93" s="1" t="n">
         <f aca="false">B93+$C$4*4</f>
@@ -4208,8 +4291,8 @@
         <v>8846280</v>
       </c>
       <c r="I94" s="1" t="n">
-        <f aca="false">B94+$C$4*4</f>
-        <v>8886160</v>
+        <f aca="false">B94+$C$4*3</f>
+        <v>8866220</v>
       </c>
       <c r="J94" s="1" t="n">
         <f aca="false">B94+$C$4*4</f>
@@ -4249,8 +4332,8 @@
         <v>8948680</v>
       </c>
       <c r="I95" s="1" t="n">
-        <f aca="false">B95+$C$4*4</f>
-        <v>8988560</v>
+        <f aca="false">B95+$C$4*3</f>
+        <v>8968620</v>
       </c>
       <c r="J95" s="1" t="n">
         <f aca="false">B95+$C$4*4</f>
@@ -4290,8 +4373,8 @@
         <v>9051080</v>
       </c>
       <c r="I96" s="1" t="n">
-        <f aca="false">B96+$C$4*4</f>
-        <v>9090960</v>
+        <f aca="false">B96+$C$4*3</f>
+        <v>9071020</v>
       </c>
       <c r="J96" s="1" t="n">
         <f aca="false">B96+$C$4*4</f>
@@ -4331,8 +4414,8 @@
         <v>9153480</v>
       </c>
       <c r="I97" s="1" t="n">
-        <f aca="false">B97+$C$4*4</f>
-        <v>9193360</v>
+        <f aca="false">B97+$C$4*3</f>
+        <v>9173420</v>
       </c>
       <c r="J97" s="1" t="n">
         <f aca="false">B97+$C$4*4</f>
@@ -4347,7 +4430,7 @@
       <c r="A98" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="B98" s="1" t="n">
+      <c r="B98" s="8" t="n">
         <f aca="false">A98*$C$1</f>
         <v>9216000</v>
       </c>
@@ -4371,9 +4454,9 @@
         <f aca="false">B98+$C$4*2</f>
         <v>9255880</v>
       </c>
-      <c r="I98" s="1" t="n">
-        <f aca="false">B98+$C$4*4</f>
-        <v>9295760</v>
+      <c r="I98" s="8" t="n">
+        <f aca="false">B98+$C$4*3</f>
+        <v>9275820</v>
       </c>
       <c r="J98" s="1" t="n">
         <f aca="false">B98+$C$4*4</f>
@@ -4383,6 +4466,9 @@
         <f aca="false">B98+$C$4*5</f>
         <v>9315700</v>
       </c>
+      <c r="M98" s="0" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="n">
@@ -4413,8 +4499,8 @@
         <v>9358280</v>
       </c>
       <c r="I99" s="1" t="n">
-        <f aca="false">B99+$C$4*4</f>
-        <v>9398160</v>
+        <f aca="false">B99+$C$4*3</f>
+        <v>9378220</v>
       </c>
       <c r="J99" s="1" t="n">
         <f aca="false">B99+$C$4*4</f>
@@ -4454,8 +4540,8 @@
         <v>9460680</v>
       </c>
       <c r="I100" s="1" t="n">
-        <f aca="false">B100+$C$4*4</f>
-        <v>9500560</v>
+        <f aca="false">B100+$C$4*3</f>
+        <v>9480620</v>
       </c>
       <c r="J100" s="1" t="n">
         <f aca="false">B100+$C$4*4</f>
@@ -4495,8 +4581,8 @@
         <v>9563080</v>
       </c>
       <c r="I101" s="1" t="n">
-        <f aca="false">B101+$C$4*4</f>
-        <v>9602960</v>
+        <f aca="false">B101+$C$4*3</f>
+        <v>9583020</v>
       </c>
       <c r="J101" s="1" t="n">
         <f aca="false">B101+$C$4*4</f>
@@ -4511,7 +4597,7 @@
       <c r="A102" s="0" t="n">
         <v>94</v>
       </c>
-      <c r="B102" s="1" t="n">
+      <c r="B102" s="8" t="n">
         <f aca="false">A102*$C$1</f>
         <v>9625600</v>
       </c>
@@ -4535,9 +4621,9 @@
         <f aca="false">B102+$C$4*2</f>
         <v>9665480</v>
       </c>
-      <c r="I102" s="1" t="n">
-        <f aca="false">B102+$C$4*4</f>
-        <v>9705360</v>
+      <c r="I102" s="8" t="n">
+        <f aca="false">B102+$C$4*3</f>
+        <v>9685420</v>
       </c>
       <c r="J102" s="1" t="n">
         <f aca="false">B102+$C$4*4</f>
@@ -4577,8 +4663,8 @@
         <v>9767880</v>
       </c>
       <c r="I103" s="1" t="n">
-        <f aca="false">B103+$C$4*4</f>
-        <v>9807760</v>
+        <f aca="false">B103+$C$4*3</f>
+        <v>9787820</v>
       </c>
       <c r="J103" s="1" t="n">
         <f aca="false">B103+$C$4*4</f>
@@ -4618,8 +4704,8 @@
         <v>9870280</v>
       </c>
       <c r="I104" s="1" t="n">
-        <f aca="false">B104+$C$4*4</f>
-        <v>9910160</v>
+        <f aca="false">B104+$C$4*3</f>
+        <v>9890220</v>
       </c>
       <c r="J104" s="1" t="n">
         <f aca="false">B104+$C$4*4</f>
@@ -4659,8 +4745,8 @@
         <v>9972680</v>
       </c>
       <c r="I105" s="1" t="n">
-        <f aca="false">B105+$C$4*4</f>
-        <v>10012560</v>
+        <f aca="false">B105+$C$4*3</f>
+        <v>9992620</v>
       </c>
       <c r="J105" s="1" t="n">
         <f aca="false">B105+$C$4*4</f>
@@ -4700,8 +4786,8 @@
         <v>10075080</v>
       </c>
       <c r="I106" s="1" t="n">
-        <f aca="false">B106+$C$4*4</f>
-        <v>10114960</v>
+        <f aca="false">B106+$C$4*3</f>
+        <v>10095020</v>
       </c>
       <c r="J106" s="1" t="n">
         <f aca="false">B106+$C$4*4</f>
@@ -4741,8 +4827,8 @@
         <v>10177480</v>
       </c>
       <c r="I107" s="1" t="n">
-        <f aca="false">B107+$C$4*4</f>
-        <v>10217360</v>
+        <f aca="false">B107+$C$4*3</f>
+        <v>10197420</v>
       </c>
       <c r="J107" s="1" t="n">
         <f aca="false">B107+$C$4*4</f>
@@ -4782,8 +4868,8 @@
         <v>10279880</v>
       </c>
       <c r="I108" s="1" t="n">
-        <f aca="false">B108+$C$4*4</f>
-        <v>10319760</v>
+        <f aca="false">B108+$C$4*3</f>
+        <v>10299820</v>
       </c>
       <c r="J108" s="1" t="n">
         <f aca="false">B108+$C$4*4</f>
@@ -4823,8 +4909,8 @@
         <v>10382280</v>
       </c>
       <c r="I109" s="1" t="n">
-        <f aca="false">B109+$C$4*4</f>
-        <v>10422160</v>
+        <f aca="false">B109+$C$4*3</f>
+        <v>10402220</v>
       </c>
       <c r="J109" s="1" t="n">
         <f aca="false">B109+$C$4*4</f>
@@ -4864,8 +4950,8 @@
         <v>10484680</v>
       </c>
       <c r="I110" s="1" t="n">
-        <f aca="false">B110+$C$4*4</f>
-        <v>10524560</v>
+        <f aca="false">B110+$C$4*3</f>
+        <v>10504620</v>
       </c>
       <c r="J110" s="1" t="n">
         <f aca="false">B110+$C$4*4</f>
@@ -4905,8 +4991,8 @@
         <v>10587080</v>
       </c>
       <c r="I111" s="1" t="n">
-        <f aca="false">B111+$C$4*4</f>
-        <v>10626960</v>
+        <f aca="false">B111+$C$4*3</f>
+        <v>10607020</v>
       </c>
       <c r="J111" s="1" t="n">
         <f aca="false">B111+$C$4*4</f>
@@ -4946,8 +5032,8 @@
         <v>10689480</v>
       </c>
       <c r="I112" s="1" t="n">
-        <f aca="false">B112+$C$4*4</f>
-        <v>10729360</v>
+        <f aca="false">B112+$C$4*3</f>
+        <v>10709420</v>
       </c>
       <c r="J112" s="1" t="n">
         <f aca="false">B112+$C$4*4</f>
@@ -4987,8 +5073,8 @@
         <v>10791880</v>
       </c>
       <c r="I113" s="1" t="n">
-        <f aca="false">B113+$C$4*4</f>
-        <v>10831760</v>
+        <f aca="false">B113+$C$4*3</f>
+        <v>10811820</v>
       </c>
       <c r="J113" s="1" t="n">
         <f aca="false">B113+$C$4*4</f>
@@ -5028,8 +5114,8 @@
         <v>10894280</v>
       </c>
       <c r="I114" s="1" t="n">
-        <f aca="false">B114+$C$4*4</f>
-        <v>10934160</v>
+        <f aca="false">B114+$C$4*3</f>
+        <v>10914220</v>
       </c>
       <c r="J114" s="1" t="n">
         <f aca="false">B114+$C$4*4</f>
@@ -5069,8 +5155,8 @@
         <v>10996680</v>
       </c>
       <c r="I115" s="1" t="n">
-        <f aca="false">B115+$C$4*4</f>
-        <v>11036560</v>
+        <f aca="false">B115+$C$4*3</f>
+        <v>11016620</v>
       </c>
       <c r="J115" s="1" t="n">
         <f aca="false">B115+$C$4*4</f>
@@ -5110,8 +5196,8 @@
         <v>11099080</v>
       </c>
       <c r="I116" s="1" t="n">
-        <f aca="false">B116+$C$4*4</f>
-        <v>11138960</v>
+        <f aca="false">B116+$C$4*3</f>
+        <v>11119020</v>
       </c>
       <c r="J116" s="1" t="n">
         <f aca="false">B116+$C$4*4</f>
@@ -5151,8 +5237,8 @@
         <v>11201480</v>
       </c>
       <c r="I117" s="1" t="n">
-        <f aca="false">B117+$C$4*4</f>
-        <v>11241360</v>
+        <f aca="false">B117+$C$4*3</f>
+        <v>11221420</v>
       </c>
       <c r="J117" s="1" t="n">
         <f aca="false">B117+$C$4*4</f>
@@ -5192,8 +5278,8 @@
         <v>11303880</v>
       </c>
       <c r="I118" s="1" t="n">
-        <f aca="false">B118+$C$4*4</f>
-        <v>11343760</v>
+        <f aca="false">B118+$C$4*3</f>
+        <v>11323820</v>
       </c>
       <c r="J118" s="1" t="n">
         <f aca="false">B118+$C$4*4</f>
@@ -5233,8 +5319,8 @@
         <v>11406280</v>
       </c>
       <c r="I119" s="1" t="n">
-        <f aca="false">B119+$C$4*4</f>
-        <v>11446160</v>
+        <f aca="false">B119+$C$4*3</f>
+        <v>11426220</v>
       </c>
       <c r="J119" s="1" t="n">
         <f aca="false">B119+$C$4*4</f>
@@ -5274,8 +5360,8 @@
         <v>11508680</v>
       </c>
       <c r="I120" s="1" t="n">
-        <f aca="false">B120+$C$4*4</f>
-        <v>11548560</v>
+        <f aca="false">B120+$C$4*3</f>
+        <v>11528620</v>
       </c>
       <c r="J120" s="1" t="n">
         <f aca="false">B120+$C$4*4</f>
@@ -5315,8 +5401,8 @@
         <v>11611080</v>
       </c>
       <c r="I121" s="1" t="n">
-        <f aca="false">B121+$C$4*4</f>
-        <v>11650960</v>
+        <f aca="false">B121+$C$4*3</f>
+        <v>11631020</v>
       </c>
       <c r="J121" s="1" t="n">
         <f aca="false">B121+$C$4*4</f>
@@ -5356,8 +5442,8 @@
         <v>11713480</v>
       </c>
       <c r="I122" s="1" t="n">
-        <f aca="false">B122+$C$4*4</f>
-        <v>11753360</v>
+        <f aca="false">B122+$C$4*3</f>
+        <v>11733420</v>
       </c>
       <c r="J122" s="1" t="n">
         <f aca="false">B122+$C$4*4</f>
@@ -5397,8 +5483,8 @@
         <v>11815880</v>
       </c>
       <c r="I123" s="1" t="n">
-        <f aca="false">B123+$C$4*4</f>
-        <v>11855760</v>
+        <f aca="false">B123+$C$4*3</f>
+        <v>11835820</v>
       </c>
       <c r="J123" s="1" t="n">
         <f aca="false">B123+$C$4*4</f>
@@ -5438,8 +5524,8 @@
         <v>11918280</v>
       </c>
       <c r="I124" s="1" t="n">
-        <f aca="false">B124+$C$4*4</f>
-        <v>11958160</v>
+        <f aca="false">B124+$C$4*3</f>
+        <v>11938220</v>
       </c>
       <c r="J124" s="1" t="n">
         <f aca="false">B124+$C$4*4</f>
@@ -5479,8 +5565,8 @@
         <v>12020680</v>
       </c>
       <c r="I125" s="1" t="n">
-        <f aca="false">B125+$C$4*4</f>
-        <v>12060560</v>
+        <f aca="false">B125+$C$4*3</f>
+        <v>12040620</v>
       </c>
       <c r="J125" s="1" t="n">
         <f aca="false">B125+$C$4*4</f>
@@ -5520,8 +5606,8 @@
         <v>12123080</v>
       </c>
       <c r="I126" s="1" t="n">
-        <f aca="false">B126+$C$4*4</f>
-        <v>12162960</v>
+        <f aca="false">B126+$C$4*3</f>
+        <v>12143020</v>
       </c>
       <c r="J126" s="1" t="n">
         <f aca="false">B126+$C$4*4</f>
@@ -5561,8 +5647,8 @@
         <v>12225480</v>
       </c>
       <c r="I127" s="1" t="n">
-        <f aca="false">B127+$C$4*4</f>
-        <v>12265360</v>
+        <f aca="false">B127+$C$4*3</f>
+        <v>12245420</v>
       </c>
       <c r="J127" s="1" t="n">
         <f aca="false">B127+$C$4*4</f>
@@ -5602,8 +5688,8 @@
         <v>12327880</v>
       </c>
       <c r="I128" s="1" t="n">
-        <f aca="false">B128+$C$4*4</f>
-        <v>12367760</v>
+        <f aca="false">B128+$C$4*3</f>
+        <v>12347820</v>
       </c>
       <c r="J128" s="1" t="n">
         <f aca="false">B128+$C$4*4</f>
@@ -5643,8 +5729,8 @@
         <v>12430280</v>
       </c>
       <c r="I129" s="1" t="n">
-        <f aca="false">B129+$C$4*4</f>
-        <v>12470160</v>
+        <f aca="false">B129+$C$4*3</f>
+        <v>12450220</v>
       </c>
       <c r="J129" s="1" t="n">
         <f aca="false">B129+$C$4*4</f>
@@ -5684,8 +5770,8 @@
         <v>12532680</v>
       </c>
       <c r="I130" s="1" t="n">
-        <f aca="false">B130+$C$4*4</f>
-        <v>12572560</v>
+        <f aca="false">B130+$C$4*3</f>
+        <v>12552620</v>
       </c>
       <c r="J130" s="1" t="n">
         <f aca="false">B130+$C$4*4</f>
@@ -5725,8 +5811,8 @@
         <v>12635080</v>
       </c>
       <c r="I131" s="1" t="n">
-        <f aca="false">B131+$C$4*4</f>
-        <v>12674960</v>
+        <f aca="false">B131+$C$4*3</f>
+        <v>12655020</v>
       </c>
       <c r="J131" s="1" t="n">
         <f aca="false">B131+$C$4*4</f>
@@ -5766,8 +5852,8 @@
         <v>12737480</v>
       </c>
       <c r="I132" s="1" t="n">
-        <f aca="false">B132+$C$4*4</f>
-        <v>12777360</v>
+        <f aca="false">B132+$C$4*3</f>
+        <v>12757420</v>
       </c>
       <c r="J132" s="1" t="n">
         <f aca="false">B132+$C$4*4</f>
@@ -5807,8 +5893,8 @@
         <v>12839880</v>
       </c>
       <c r="I133" s="1" t="n">
-        <f aca="false">B133+$C$4*4</f>
-        <v>12879760</v>
+        <f aca="false">B133+$C$4*3</f>
+        <v>12859820</v>
       </c>
       <c r="J133" s="1" t="n">
         <f aca="false">B133+$C$4*4</f>
@@ -5848,8 +5934,8 @@
         <v>12942280</v>
       </c>
       <c r="I134" s="1" t="n">
-        <f aca="false">B134+$C$4*4</f>
-        <v>12982160</v>
+        <f aca="false">B134+$C$4*3</f>
+        <v>12962220</v>
       </c>
       <c r="J134" s="1" t="n">
         <f aca="false">B134+$C$4*4</f>
@@ -5889,8 +5975,8 @@
         <v>13044680</v>
       </c>
       <c r="I135" s="1" t="n">
-        <f aca="false">B135+$C$4*4</f>
-        <v>13084560</v>
+        <f aca="false">B135+$C$4*3</f>
+        <v>13064620</v>
       </c>
       <c r="J135" s="1" t="n">
         <f aca="false">B135+$C$4*4</f>
@@ -5930,8 +6016,8 @@
         <v>13147080</v>
       </c>
       <c r="I136" s="1" t="n">
-        <f aca="false">B136+$C$4*4</f>
-        <v>13186960</v>
+        <f aca="false">B136+$C$4*3</f>
+        <v>13167020</v>
       </c>
       <c r="J136" s="1" t="n">
         <f aca="false">B136+$C$4*4</f>
@@ -5971,8 +6057,8 @@
         <v>13249480</v>
       </c>
       <c r="I137" s="1" t="n">
-        <f aca="false">B137+$C$4*4</f>
-        <v>13289360</v>
+        <f aca="false">B137+$C$4*3</f>
+        <v>13269420</v>
       </c>
       <c r="J137" s="1" t="n">
         <f aca="false">B137+$C$4*4</f>
@@ -6012,8 +6098,8 @@
         <v>13351880</v>
       </c>
       <c r="I138" s="1" t="n">
-        <f aca="false">B138+$C$4*4</f>
-        <v>13391760</v>
+        <f aca="false">B138+$C$4*3</f>
+        <v>13371820</v>
       </c>
       <c r="J138" s="1" t="n">
         <f aca="false">B138+$C$4*4</f>
@@ -6053,8 +6139,8 @@
         <v>13454280</v>
       </c>
       <c r="I139" s="1" t="n">
-        <f aca="false">B139+$C$4*4</f>
-        <v>13494160</v>
+        <f aca="false">B139+$C$4*3</f>
+        <v>13474220</v>
       </c>
       <c r="J139" s="1" t="n">
         <f aca="false">B139+$C$4*4</f>
@@ -6094,8 +6180,8 @@
         <v>13556680</v>
       </c>
       <c r="I140" s="1" t="n">
-        <f aca="false">B140+$C$4*4</f>
-        <v>13596560</v>
+        <f aca="false">B140+$C$4*3</f>
+        <v>13576620</v>
       </c>
       <c r="J140" s="1" t="n">
         <f aca="false">B140+$C$4*4</f>
@@ -6135,8 +6221,8 @@
         <v>13659080</v>
       </c>
       <c r="I141" s="1" t="n">
-        <f aca="false">B141+$C$4*4</f>
-        <v>13698960</v>
+        <f aca="false">B141+$C$4*3</f>
+        <v>13679020</v>
       </c>
       <c r="J141" s="1" t="n">
         <f aca="false">B141+$C$4*4</f>
@@ -6176,8 +6262,8 @@
         <v>13761480</v>
       </c>
       <c r="I142" s="1" t="n">
-        <f aca="false">B142+$C$4*4</f>
-        <v>13801360</v>
+        <f aca="false">B142+$C$4*3</f>
+        <v>13781420</v>
       </c>
       <c r="J142" s="1" t="n">
         <f aca="false">B142+$C$4*4</f>
@@ -6217,8 +6303,8 @@
         <v>13863880</v>
       </c>
       <c r="I143" s="1" t="n">
-        <f aca="false">B143+$C$4*4</f>
-        <v>13903760</v>
+        <f aca="false">B143+$C$4*3</f>
+        <v>13883820</v>
       </c>
       <c r="J143" s="1" t="n">
         <f aca="false">B143+$C$4*4</f>
@@ -6258,8 +6344,8 @@
         <v>13966280</v>
       </c>
       <c r="I144" s="1" t="n">
-        <f aca="false">B144+$C$4*4</f>
-        <v>14006160</v>
+        <f aca="false">B144+$C$4*3</f>
+        <v>13986220</v>
       </c>
       <c r="J144" s="1" t="n">
         <f aca="false">B144+$C$4*4</f>
@@ -6299,8 +6385,8 @@
         <v>14068680</v>
       </c>
       <c r="I145" s="1" t="n">
-        <f aca="false">B145+$C$4*4</f>
-        <v>14108560</v>
+        <f aca="false">B145+$C$4*3</f>
+        <v>14088620</v>
       </c>
       <c r="J145" s="1" t="n">
         <f aca="false">B145+$C$4*4</f>
@@ -6340,8 +6426,8 @@
         <v>14171080</v>
       </c>
       <c r="I146" s="1" t="n">
-        <f aca="false">B146+$C$4*4</f>
-        <v>14210960</v>
+        <f aca="false">B146+$C$4*3</f>
+        <v>14191020</v>
       </c>
       <c r="J146" s="1" t="n">
         <f aca="false">B146+$C$4*4</f>
@@ -6381,8 +6467,8 @@
         <v>14273480</v>
       </c>
       <c r="I147" s="1" t="n">
-        <f aca="false">B147+$C$4*4</f>
-        <v>14313360</v>
+        <f aca="false">B147+$C$4*3</f>
+        <v>14293420</v>
       </c>
       <c r="J147" s="1" t="n">
         <f aca="false">B147+$C$4*4</f>
@@ -6422,8 +6508,8 @@
         <v>14375880</v>
       </c>
       <c r="I148" s="1" t="n">
-        <f aca="false">B148+$C$4*4</f>
-        <v>14415760</v>
+        <f aca="false">B148+$C$4*3</f>
+        <v>14395820</v>
       </c>
       <c r="J148" s="1" t="n">
         <f aca="false">B148+$C$4*4</f>
@@ -6463,8 +6549,8 @@
         <v>14478280</v>
       </c>
       <c r="I149" s="1" t="n">
-        <f aca="false">B149+$C$4*4</f>
-        <v>14518160</v>
+        <f aca="false">B149+$C$4*3</f>
+        <v>14498220</v>
       </c>
       <c r="J149" s="1" t="n">
         <f aca="false">B149+$C$4*4</f>
@@ -6504,8 +6590,8 @@
         <v>14580680</v>
       </c>
       <c r="I150" s="1" t="n">
-        <f aca="false">B150+$C$4*4</f>
-        <v>14620560</v>
+        <f aca="false">B150+$C$4*3</f>
+        <v>14600620</v>
       </c>
       <c r="J150" s="1" t="n">
         <f aca="false">B150+$C$4*4</f>
@@ -6545,8 +6631,8 @@
         <v>14683080</v>
       </c>
       <c r="I151" s="1" t="n">
-        <f aca="false">B151+$C$4*4</f>
-        <v>14722960</v>
+        <f aca="false">B151+$C$4*3</f>
+        <v>14703020</v>
       </c>
       <c r="J151" s="1" t="n">
         <f aca="false">B151+$C$4*4</f>
@@ -6586,8 +6672,8 @@
         <v>14785480</v>
       </c>
       <c r="I152" s="1" t="n">
-        <f aca="false">B152+$C$4*4</f>
-        <v>14825360</v>
+        <f aca="false">B152+$C$4*3</f>
+        <v>14805420</v>
       </c>
       <c r="J152" s="1" t="n">
         <f aca="false">B152+$C$4*4</f>
@@ -6627,8 +6713,8 @@
         <v>14887880</v>
       </c>
       <c r="I153" s="1" t="n">
-        <f aca="false">B153+$C$4*4</f>
-        <v>14927760</v>
+        <f aca="false">B153+$C$4*3</f>
+        <v>14907820</v>
       </c>
       <c r="J153" s="1" t="n">
         <f aca="false">B153+$C$4*4</f>
@@ -6668,8 +6754,8 @@
         <v>14990280</v>
       </c>
       <c r="I154" s="1" t="n">
-        <f aca="false">B154+$C$4*4</f>
-        <v>15030160</v>
+        <f aca="false">B154+$C$4*3</f>
+        <v>15010220</v>
       </c>
       <c r="J154" s="1" t="n">
         <f aca="false">B154+$C$4*4</f>
@@ -6709,8 +6795,8 @@
         <v>15092680</v>
       </c>
       <c r="I155" s="1" t="n">
-        <f aca="false">B155+$C$4*4</f>
-        <v>15132560</v>
+        <f aca="false">B155+$C$4*3</f>
+        <v>15112620</v>
       </c>
       <c r="J155" s="1" t="n">
         <f aca="false">B155+$C$4*4</f>
@@ -6750,8 +6836,8 @@
         <v>15195080</v>
       </c>
       <c r="I156" s="1" t="n">
-        <f aca="false">B156+$C$4*4</f>
-        <v>15234960</v>
+        <f aca="false">B156+$C$4*3</f>
+        <v>15215020</v>
       </c>
       <c r="J156" s="1" t="n">
         <f aca="false">B156+$C$4*4</f>
@@ -6791,8 +6877,8 @@
         <v>15297480</v>
       </c>
       <c r="I157" s="1" t="n">
-        <f aca="false">B157+$C$4*4</f>
-        <v>15337360</v>
+        <f aca="false">B157+$C$4*3</f>
+        <v>15317420</v>
       </c>
       <c r="J157" s="1" t="n">
         <f aca="false">B157+$C$4*4</f>
@@ -6832,8 +6918,8 @@
         <v>15399880</v>
       </c>
       <c r="I158" s="1" t="n">
-        <f aca="false">B158+$C$4*4</f>
-        <v>15439760</v>
+        <f aca="false">B158+$C$4*3</f>
+        <v>15419820</v>
       </c>
       <c r="J158" s="1" t="n">
         <f aca="false">B158+$C$4*4</f>
@@ -6873,8 +6959,8 @@
         <v>15502280</v>
       </c>
       <c r="I159" s="1" t="n">
-        <f aca="false">B159+$C$4*4</f>
-        <v>15542160</v>
+        <f aca="false">B159+$C$4*3</f>
+        <v>15522220</v>
       </c>
       <c r="J159" s="1" t="n">
         <f aca="false">B159+$C$4*4</f>
@@ -6914,8 +7000,8 @@
         <v>15604680</v>
       </c>
       <c r="I160" s="1" t="n">
-        <f aca="false">B160+$C$4*4</f>
-        <v>15644560</v>
+        <f aca="false">B160+$C$4*3</f>
+        <v>15624620</v>
       </c>
       <c r="J160" s="1" t="n">
         <f aca="false">B160+$C$4*4</f>
@@ -6955,8 +7041,8 @@
         <v>15707080</v>
       </c>
       <c r="I161" s="1" t="n">
-        <f aca="false">B161+$C$4*4</f>
-        <v>15746960</v>
+        <f aca="false">B161+$C$4*3</f>
+        <v>15727020</v>
       </c>
       <c r="J161" s="1" t="n">
         <f aca="false">B161+$C$4*4</f>
@@ -6996,8 +7082,8 @@
         <v>15809480</v>
       </c>
       <c r="I162" s="1" t="n">
-        <f aca="false">B162+$C$4*4</f>
-        <v>15849360</v>
+        <f aca="false">B162+$C$4*3</f>
+        <v>15829420</v>
       </c>
       <c r="J162" s="1" t="n">
         <f aca="false">B162+$C$4*4</f>
@@ -7037,8 +7123,8 @@
         <v>15911880</v>
       </c>
       <c r="I163" s="1" t="n">
-        <f aca="false">B163+$C$4*4</f>
-        <v>15951760</v>
+        <f aca="false">B163+$C$4*3</f>
+        <v>15931820</v>
       </c>
       <c r="J163" s="1" t="n">
         <f aca="false">B163+$C$4*4</f>
@@ -7078,8 +7164,8 @@
         <v>16014280</v>
       </c>
       <c r="I164" s="1" t="n">
-        <f aca="false">B164+$C$4*4</f>
-        <v>16054160</v>
+        <f aca="false">B164+$C$4*3</f>
+        <v>16034220</v>
       </c>
       <c r="J164" s="1" t="n">
         <f aca="false">B164+$C$4*4</f>
@@ -7119,8 +7205,8 @@
         <v>16116680</v>
       </c>
       <c r="I165" s="1" t="n">
-        <f aca="false">B165+$C$4*4</f>
-        <v>16156560</v>
+        <f aca="false">B165+$C$4*3</f>
+        <v>16136620</v>
       </c>
       <c r="J165" s="1" t="n">
         <f aca="false">B165+$C$4*4</f>
@@ -7160,8 +7246,8 @@
         <v>16219080</v>
       </c>
       <c r="I166" s="1" t="n">
-        <f aca="false">B166+$C$4*4</f>
-        <v>16258960</v>
+        <f aca="false">B166+$C$4*3</f>
+        <v>16239020</v>
       </c>
       <c r="J166" s="1" t="n">
         <f aca="false">B166+$C$4*4</f>
@@ -7201,8 +7287,8 @@
         <v>16321480</v>
       </c>
       <c r="I167" s="1" t="n">
-        <f aca="false">B167+$C$4*4</f>
-        <v>16361360</v>
+        <f aca="false">B167+$C$4*3</f>
+        <v>16341420</v>
       </c>
       <c r="J167" s="1" t="n">
         <f aca="false">B167+$C$4*4</f>
@@ -7242,8 +7328,8 @@
         <v>16423880</v>
       </c>
       <c r="I168" s="1" t="n">
-        <f aca="false">B168+$C$4*4</f>
-        <v>16463760</v>
+        <f aca="false">B168+$C$4*3</f>
+        <v>16443820</v>
       </c>
       <c r="J168" s="1" t="n">
         <f aca="false">B168+$C$4*4</f>
@@ -7283,8 +7369,8 @@
         <v>16526280</v>
       </c>
       <c r="I169" s="1" t="n">
-        <f aca="false">B169+$C$4*4</f>
-        <v>16566160</v>
+        <f aca="false">B169+$C$4*3</f>
+        <v>16546220</v>
       </c>
       <c r="J169" s="1" t="n">
         <f aca="false">B169+$C$4*4</f>
@@ -7324,8 +7410,8 @@
         <v>16628680</v>
       </c>
       <c r="I170" s="1" t="n">
-        <f aca="false">B170+$C$4*4</f>
-        <v>16668560</v>
+        <f aca="false">B170+$C$4*3</f>
+        <v>16648620</v>
       </c>
       <c r="J170" s="1" t="n">
         <f aca="false">B170+$C$4*4</f>
@@ -7365,8 +7451,8 @@
         <v>16731080</v>
       </c>
       <c r="I171" s="1" t="n">
-        <f aca="false">B171+$C$4*4</f>
-        <v>16770960</v>
+        <f aca="false">B171+$C$4*3</f>
+        <v>16751020</v>
       </c>
       <c r="J171" s="1" t="n">
         <f aca="false">B171+$C$4*4</f>
@@ -7406,8 +7492,8 @@
         <v>16833480</v>
       </c>
       <c r="I172" s="1" t="n">
-        <f aca="false">B172+$C$4*4</f>
-        <v>16873360</v>
+        <f aca="false">B172+$C$4*3</f>
+        <v>16853420</v>
       </c>
       <c r="J172" s="1" t="n">
         <f aca="false">B172+$C$4*4</f>
@@ -7447,8 +7533,8 @@
         <v>16935880</v>
       </c>
       <c r="I173" s="1" t="n">
-        <f aca="false">B173+$C$4*4</f>
-        <v>16975760</v>
+        <f aca="false">B173+$C$4*3</f>
+        <v>16955820</v>
       </c>
       <c r="J173" s="1" t="n">
         <f aca="false">B173+$C$4*4</f>
@@ -7488,8 +7574,8 @@
         <v>17038280</v>
       </c>
       <c r="I174" s="1" t="n">
-        <f aca="false">B174+$C$4*4</f>
-        <v>17078160</v>
+        <f aca="false">B174+$C$4*3</f>
+        <v>17058220</v>
       </c>
       <c r="J174" s="1" t="n">
         <f aca="false">B174+$C$4*4</f>
@@ -7529,8 +7615,8 @@
         <v>17140680</v>
       </c>
       <c r="I175" s="1" t="n">
-        <f aca="false">B175+$C$4*4</f>
-        <v>17180560</v>
+        <f aca="false">B175+$C$4*3</f>
+        <v>17160620</v>
       </c>
       <c r="J175" s="1" t="n">
         <f aca="false">B175+$C$4*4</f>
@@ -7570,8 +7656,8 @@
         <v>17243080</v>
       </c>
       <c r="I176" s="1" t="n">
-        <f aca="false">B176+$C$4*4</f>
-        <v>17282960</v>
+        <f aca="false">B176+$C$4*3</f>
+        <v>17263020</v>
       </c>
       <c r="J176" s="1" t="n">
         <f aca="false">B176+$C$4*4</f>
@@ -7611,8 +7697,8 @@
         <v>17345480</v>
       </c>
       <c r="I177" s="1" t="n">
-        <f aca="false">B177+$C$4*4</f>
-        <v>17385360</v>
+        <f aca="false">B177+$C$4*3</f>
+        <v>17365420</v>
       </c>
       <c r="J177" s="1" t="n">
         <f aca="false">B177+$C$4*4</f>
@@ -7652,8 +7738,8 @@
         <v>17447880</v>
       </c>
       <c r="I178" s="1" t="n">
-        <f aca="false">B178+$C$4*4</f>
-        <v>17487760</v>
+        <f aca="false">B178+$C$4*3</f>
+        <v>17467820</v>
       </c>
       <c r="J178" s="1" t="n">
         <f aca="false">B178+$C$4*4</f>
@@ -7693,8 +7779,8 @@
         <v>17550280</v>
       </c>
       <c r="I179" s="1" t="n">
-        <f aca="false">B179+$C$4*4</f>
-        <v>17590160</v>
+        <f aca="false">B179+$C$4*3</f>
+        <v>17570220</v>
       </c>
       <c r="J179" s="1" t="n">
         <f aca="false">B179+$C$4*4</f>
@@ -7734,8 +7820,8 @@
         <v>17652680</v>
       </c>
       <c r="I180" s="1" t="n">
-        <f aca="false">B180+$C$4*4</f>
-        <v>17692560</v>
+        <f aca="false">B180+$C$4*3</f>
+        <v>17672620</v>
       </c>
       <c r="J180" s="1" t="n">
         <f aca="false">B180+$C$4*4</f>
@@ -7775,8 +7861,8 @@
         <v>17755080</v>
       </c>
       <c r="I181" s="1" t="n">
-        <f aca="false">B181+$C$4*4</f>
-        <v>17794960</v>
+        <f aca="false">B181+$C$4*3</f>
+        <v>17775020</v>
       </c>
       <c r="J181" s="1" t="n">
         <f aca="false">B181+$C$4*4</f>
@@ -7816,8 +7902,8 @@
         <v>17857480</v>
       </c>
       <c r="I182" s="1" t="n">
-        <f aca="false">B182+$C$4*4</f>
-        <v>17897360</v>
+        <f aca="false">B182+$C$4*3</f>
+        <v>17877420</v>
       </c>
       <c r="J182" s="1" t="n">
         <f aca="false">B182+$C$4*4</f>
@@ -7857,8 +7943,8 @@
         <v>17959880</v>
       </c>
       <c r="I183" s="1" t="n">
-        <f aca="false">B183+$C$4*4</f>
-        <v>17999760</v>
+        <f aca="false">B183+$C$4*3</f>
+        <v>17979820</v>
       </c>
       <c r="J183" s="1" t="n">
         <f aca="false">B183+$C$4*4</f>
@@ -7898,8 +7984,8 @@
         <v>18062280</v>
       </c>
       <c r="I184" s="1" t="n">
-        <f aca="false">B184+$C$4*4</f>
-        <v>18102160</v>
+        <f aca="false">B184+$C$4*3</f>
+        <v>18082220</v>
       </c>
       <c r="J184" s="1" t="n">
         <f aca="false">B184+$C$4*4</f>
@@ -7939,8 +8025,8 @@
         <v>18164680</v>
       </c>
       <c r="I185" s="1" t="n">
-        <f aca="false">B185+$C$4*4</f>
-        <v>18204560</v>
+        <f aca="false">B185+$C$4*3</f>
+        <v>18184620</v>
       </c>
       <c r="J185" s="1" t="n">
         <f aca="false">B185+$C$4*4</f>
@@ -7980,8 +8066,8 @@
         <v>18267080</v>
       </c>
       <c r="I186" s="1" t="n">
-        <f aca="false">B186+$C$4*4</f>
-        <v>18306960</v>
+        <f aca="false">B186+$C$4*3</f>
+        <v>18287020</v>
       </c>
       <c r="J186" s="1" t="n">
         <f aca="false">B186+$C$4*4</f>
@@ -8021,8 +8107,8 @@
         <v>18369480</v>
       </c>
       <c r="I187" s="1" t="n">
-        <f aca="false">B187+$C$4*4</f>
-        <v>18409360</v>
+        <f aca="false">B187+$C$4*3</f>
+        <v>18389420</v>
       </c>
       <c r="J187" s="1" t="n">
         <f aca="false">B187+$C$4*4</f>
@@ -8062,8 +8148,8 @@
         <v>18471880</v>
       </c>
       <c r="I188" s="1" t="n">
-        <f aca="false">B188+$C$4*4</f>
-        <v>18511760</v>
+        <f aca="false">B188+$C$4*3</f>
+        <v>18491820</v>
       </c>
       <c r="J188" s="1" t="n">
         <f aca="false">B188+$C$4*4</f>
@@ -8103,8 +8189,8 @@
         <v>18574280</v>
       </c>
       <c r="I189" s="1" t="n">
-        <f aca="false">B189+$C$4*4</f>
-        <v>18614160</v>
+        <f aca="false">B189+$C$4*3</f>
+        <v>18594220</v>
       </c>
       <c r="J189" s="1" t="n">
         <f aca="false">B189+$C$4*4</f>
@@ -8144,8 +8230,8 @@
         <v>18676680</v>
       </c>
       <c r="I190" s="1" t="n">
-        <f aca="false">B190+$C$4*4</f>
-        <v>18716560</v>
+        <f aca="false">B190+$C$4*3</f>
+        <v>18696620</v>
       </c>
       <c r="J190" s="1" t="n">
         <f aca="false">B190+$C$4*4</f>
@@ -8185,8 +8271,8 @@
         <v>18779080</v>
       </c>
       <c r="I191" s="1" t="n">
-        <f aca="false">B191+$C$4*4</f>
-        <v>18818960</v>
+        <f aca="false">B191+$C$4*3</f>
+        <v>18799020</v>
       </c>
       <c r="J191" s="1" t="n">
         <f aca="false">B191+$C$4*4</f>
@@ -8226,8 +8312,8 @@
         <v>18881480</v>
       </c>
       <c r="I192" s="1" t="n">
-        <f aca="false">B192+$C$4*4</f>
-        <v>18921360</v>
+        <f aca="false">B192+$C$4*3</f>
+        <v>18901420</v>
       </c>
       <c r="J192" s="1" t="n">
         <f aca="false">B192+$C$4*4</f>
@@ -8267,8 +8353,8 @@
         <v>18983880</v>
       </c>
       <c r="I193" s="1" t="n">
-        <f aca="false">B193+$C$4*4</f>
-        <v>19023760</v>
+        <f aca="false">B193+$C$4*3</f>
+        <v>19003820</v>
       </c>
       <c r="J193" s="1" t="n">
         <f aca="false">B193+$C$4*4</f>
@@ -8308,8 +8394,8 @@
         <v>19086280</v>
       </c>
       <c r="I194" s="1" t="n">
-        <f aca="false">B194+$C$4*4</f>
-        <v>19126160</v>
+        <f aca="false">B194+$C$4*3</f>
+        <v>19106220</v>
       </c>
       <c r="J194" s="1" t="n">
         <f aca="false">B194+$C$4*4</f>
@@ -8349,8 +8435,8 @@
         <v>19188680</v>
       </c>
       <c r="I195" s="1" t="n">
-        <f aca="false">B195+$C$4*4</f>
-        <v>19228560</v>
+        <f aca="false">B195+$C$4*3</f>
+        <v>19208620</v>
       </c>
       <c r="J195" s="1" t="n">
         <f aca="false">B195+$C$4*4</f>
@@ -8390,8 +8476,8 @@
         <v>19291080</v>
       </c>
       <c r="I196" s="1" t="n">
-        <f aca="false">B196+$C$4*4</f>
-        <v>19330960</v>
+        <f aca="false">B196+$C$4*3</f>
+        <v>19311020</v>
       </c>
       <c r="J196" s="1" t="n">
         <f aca="false">B196+$C$4*4</f>
@@ -8431,8 +8517,8 @@
         <v>19393480</v>
       </c>
       <c r="I197" s="1" t="n">
-        <f aca="false">B197+$C$4*4</f>
-        <v>19433360</v>
+        <f aca="false">B197+$C$4*3</f>
+        <v>19413420</v>
       </c>
       <c r="J197" s="1" t="n">
         <f aca="false">B197+$C$4*4</f>
@@ -8472,8 +8558,8 @@
         <v>19495880</v>
       </c>
       <c r="I198" s="1" t="n">
-        <f aca="false">B198+$C$4*4</f>
-        <v>19535760</v>
+        <f aca="false">B198+$C$4*3</f>
+        <v>19515820</v>
       </c>
       <c r="J198" s="1" t="n">
         <f aca="false">B198+$C$4*4</f>
@@ -8513,8 +8599,8 @@
         <v>19598280</v>
       </c>
       <c r="I199" s="1" t="n">
-        <f aca="false">B199+$C$4*4</f>
-        <v>19638160</v>
+        <f aca="false">B199+$C$4*3</f>
+        <v>19618220</v>
       </c>
       <c r="J199" s="1" t="n">
         <f aca="false">B199+$C$4*4</f>
@@ -8554,8 +8640,8 @@
         <v>19700680</v>
       </c>
       <c r="I200" s="1" t="n">
-        <f aca="false">B200+$C$4*4</f>
-        <v>19740560</v>
+        <f aca="false">B200+$C$4*3</f>
+        <v>19720620</v>
       </c>
       <c r="J200" s="1" t="n">
         <f aca="false">B200+$C$4*4</f>
@@ -8595,8 +8681,8 @@
         <v>19803080</v>
       </c>
       <c r="I201" s="1" t="n">
-        <f aca="false">B201+$C$4*4</f>
-        <v>19842960</v>
+        <f aca="false">B201+$C$4*3</f>
+        <v>19823020</v>
       </c>
       <c r="J201" s="1" t="n">
         <f aca="false">B201+$C$4*4</f>
@@ -8636,8 +8722,8 @@
         <v>19905480</v>
       </c>
       <c r="I202" s="1" t="n">
-        <f aca="false">B202+$C$4*4</f>
-        <v>19945360</v>
+        <f aca="false">B202+$C$4*3</f>
+        <v>19925420</v>
       </c>
       <c r="J202" s="1" t="n">
         <f aca="false">B202+$C$4*4</f>
@@ -8677,8 +8763,8 @@
         <v>20007880</v>
       </c>
       <c r="I203" s="1" t="n">
-        <f aca="false">B203+$C$4*4</f>
-        <v>20047760</v>
+        <f aca="false">B203+$C$4*3</f>
+        <v>20027820</v>
       </c>
       <c r="J203" s="1" t="n">
         <f aca="false">B203+$C$4*4</f>
@@ -8718,8 +8804,8 @@
         <v>20110280</v>
       </c>
       <c r="I204" s="1" t="n">
-        <f aca="false">B204+$C$4*4</f>
-        <v>20150160</v>
+        <f aca="false">B204+$C$4*3</f>
+        <v>20130220</v>
       </c>
       <c r="J204" s="1" t="n">
         <f aca="false">B204+$C$4*4</f>
@@ -8759,8 +8845,8 @@
         <v>20212680</v>
       </c>
       <c r="I205" s="1" t="n">
-        <f aca="false">B205+$C$4*4</f>
-        <v>20252560</v>
+        <f aca="false">B205+$C$4*3</f>
+        <v>20232620</v>
       </c>
       <c r="J205" s="1" t="n">
         <f aca="false">B205+$C$4*4</f>
@@ -8800,8 +8886,8 @@
         <v>20315080</v>
       </c>
       <c r="I206" s="1" t="n">
-        <f aca="false">B206+$C$4*4</f>
-        <v>20354960</v>
+        <f aca="false">B206+$C$4*3</f>
+        <v>20335020</v>
       </c>
       <c r="J206" s="1" t="n">
         <f aca="false">B206+$C$4*4</f>
@@ -8841,8 +8927,8 @@
         <v>20417480</v>
       </c>
       <c r="I207" s="1" t="n">
-        <f aca="false">B207+$C$4*4</f>
-        <v>20457360</v>
+        <f aca="false">B207+$C$4*3</f>
+        <v>20437420</v>
       </c>
       <c r="J207" s="1" t="n">
         <f aca="false">B207+$C$4*4</f>
@@ -8882,8 +8968,8 @@
         <v>20519880</v>
       </c>
       <c r="I208" s="1" t="n">
-        <f aca="false">B208+$C$4*4</f>
-        <v>20559760</v>
+        <f aca="false">B208+$C$4*3</f>
+        <v>20539820</v>
       </c>
       <c r="J208" s="1" t="n">
         <f aca="false">B208+$C$4*4</f>
@@ -8923,8 +9009,8 @@
         <v>20622280</v>
       </c>
       <c r="I209" s="1" t="n">
-        <f aca="false">B209+$C$4*4</f>
-        <v>20662160</v>
+        <f aca="false">B209+$C$4*3</f>
+        <v>20642220</v>
       </c>
       <c r="J209" s="1" t="n">
         <f aca="false">B209+$C$4*4</f>
@@ -8964,8 +9050,8 @@
         <v>20724680</v>
       </c>
       <c r="I210" s="1" t="n">
-        <f aca="false">B210+$C$4*4</f>
-        <v>20764560</v>
+        <f aca="false">B210+$C$4*3</f>
+        <v>20744620</v>
       </c>
       <c r="J210" s="1" t="n">
         <f aca="false">B210+$C$4*4</f>
@@ -9005,8 +9091,8 @@
         <v>20827080</v>
       </c>
       <c r="I211" s="1" t="n">
-        <f aca="false">B211+$C$4*4</f>
-        <v>20866960</v>
+        <f aca="false">B211+$C$4*3</f>
+        <v>20847020</v>
       </c>
       <c r="J211" s="1" t="n">
         <f aca="false">B211+$C$4*4</f>
@@ -9046,8 +9132,8 @@
         <v>20929480</v>
       </c>
       <c r="I212" s="1" t="n">
-        <f aca="false">B212+$C$4*4</f>
-        <v>20969360</v>
+        <f aca="false">B212+$C$4*3</f>
+        <v>20949420</v>
       </c>
       <c r="J212" s="1" t="n">
         <f aca="false">B212+$C$4*4</f>
@@ -9087,8 +9173,8 @@
         <v>21031880</v>
       </c>
       <c r="I213" s="1" t="n">
-        <f aca="false">B213+$C$4*4</f>
-        <v>21071760</v>
+        <f aca="false">B213+$C$4*3</f>
+        <v>21051820</v>
       </c>
       <c r="J213" s="1" t="n">
         <f aca="false">B213+$C$4*4</f>
@@ -9128,8 +9214,8 @@
         <v>21134280</v>
       </c>
       <c r="I214" s="1" t="n">
-        <f aca="false">B214+$C$4*4</f>
-        <v>21174160</v>
+        <f aca="false">B214+$C$4*3</f>
+        <v>21154220</v>
       </c>
       <c r="J214" s="1" t="n">
         <f aca="false">B214+$C$4*4</f>
@@ -9169,8 +9255,8 @@
         <v>21236680</v>
       </c>
       <c r="I215" s="1" t="n">
-        <f aca="false">B215+$C$4*4</f>
-        <v>21276560</v>
+        <f aca="false">B215+$C$4*3</f>
+        <v>21256620</v>
       </c>
       <c r="J215" s="1" t="n">
         <f aca="false">B215+$C$4*4</f>
@@ -9210,8 +9296,8 @@
         <v>21339080</v>
       </c>
       <c r="I216" s="1" t="n">
-        <f aca="false">B216+$C$4*4</f>
-        <v>21378960</v>
+        <f aca="false">B216+$C$4*3</f>
+        <v>21359020</v>
       </c>
       <c r="J216" s="1" t="n">
         <f aca="false">B216+$C$4*4</f>
@@ -9251,8 +9337,8 @@
         <v>21441480</v>
       </c>
       <c r="I217" s="1" t="n">
-        <f aca="false">B217+$C$4*4</f>
-        <v>21481360</v>
+        <f aca="false">B217+$C$4*3</f>
+        <v>21461420</v>
       </c>
       <c r="J217" s="1" t="n">
         <f aca="false">B217+$C$4*4</f>
@@ -9292,8 +9378,8 @@
         <v>21543880</v>
       </c>
       <c r="I218" s="1" t="n">
-        <f aca="false">B218+$C$4*4</f>
-        <v>21583760</v>
+        <f aca="false">B218+$C$4*3</f>
+        <v>21563820</v>
       </c>
       <c r="J218" s="1" t="n">
         <f aca="false">B218+$C$4*4</f>
@@ -9333,8 +9419,8 @@
         <v>21646280</v>
       </c>
       <c r="I219" s="1" t="n">
-        <f aca="false">B219+$C$4*4</f>
-        <v>21686160</v>
+        <f aca="false">B219+$C$4*3</f>
+        <v>21666220</v>
       </c>
       <c r="J219" s="1" t="n">
         <f aca="false">B219+$C$4*4</f>
@@ -9374,8 +9460,8 @@
         <v>21748680</v>
       </c>
       <c r="I220" s="1" t="n">
-        <f aca="false">B220+$C$4*4</f>
-        <v>21788560</v>
+        <f aca="false">B220+$C$4*3</f>
+        <v>21768620</v>
       </c>
       <c r="J220" s="1" t="n">
         <f aca="false">B220+$C$4*4</f>
@@ -9415,8 +9501,8 @@
         <v>21851080</v>
       </c>
       <c r="I221" s="1" t="n">
-        <f aca="false">B221+$C$4*4</f>
-        <v>21890960</v>
+        <f aca="false">B221+$C$4*3</f>
+        <v>21871020</v>
       </c>
       <c r="J221" s="1" t="n">
         <f aca="false">B221+$C$4*4</f>
@@ -9456,8 +9542,8 @@
         <v>21953480</v>
       </c>
       <c r="I222" s="1" t="n">
-        <f aca="false">B222+$C$4*4</f>
-        <v>21993360</v>
+        <f aca="false">B222+$C$4*3</f>
+        <v>21973420</v>
       </c>
       <c r="J222" s="1" t="n">
         <f aca="false">B222+$C$4*4</f>
@@ -9497,8 +9583,8 @@
         <v>22055880</v>
       </c>
       <c r="I223" s="1" t="n">
-        <f aca="false">B223+$C$4*4</f>
-        <v>22095760</v>
+        <f aca="false">B223+$C$4*3</f>
+        <v>22075820</v>
       </c>
       <c r="J223" s="1" t="n">
         <f aca="false">B223+$C$4*4</f>
@@ -9538,8 +9624,8 @@
         <v>22158280</v>
       </c>
       <c r="I224" s="1" t="n">
-        <f aca="false">B224+$C$4*4</f>
-        <v>22198160</v>
+        <f aca="false">B224+$C$4*3</f>
+        <v>22178220</v>
       </c>
       <c r="J224" s="1" t="n">
         <f aca="false">B224+$C$4*4</f>
@@ -9579,8 +9665,8 @@
         <v>22260680</v>
       </c>
       <c r="I225" s="1" t="n">
-        <f aca="false">B225+$C$4*4</f>
-        <v>22300560</v>
+        <f aca="false">B225+$C$4*3</f>
+        <v>22280620</v>
       </c>
       <c r="J225" s="1" t="n">
         <f aca="false">B225+$C$4*4</f>
@@ -9620,8 +9706,8 @@
         <v>22363080</v>
       </c>
       <c r="I226" s="1" t="n">
-        <f aca="false">B226+$C$4*4</f>
-        <v>22402960</v>
+        <f aca="false">B226+$C$4*3</f>
+        <v>22383020</v>
       </c>
       <c r="J226" s="1" t="n">
         <f aca="false">B226+$C$4*4</f>
@@ -9661,8 +9747,8 @@
         <v>22465480</v>
       </c>
       <c r="I227" s="1" t="n">
-        <f aca="false">B227+$C$4*4</f>
-        <v>22505360</v>
+        <f aca="false">B227+$C$4*3</f>
+        <v>22485420</v>
       </c>
       <c r="J227" s="1" t="n">
         <f aca="false">B227+$C$4*4</f>
@@ -9702,8 +9788,8 @@
         <v>22567880</v>
       </c>
       <c r="I228" s="1" t="n">
-        <f aca="false">B228+$C$4*4</f>
-        <v>22607760</v>
+        <f aca="false">B228+$C$4*3</f>
+        <v>22587820</v>
       </c>
       <c r="J228" s="1" t="n">
         <f aca="false">B228+$C$4*4</f>
@@ -9743,8 +9829,8 @@
         <v>22670280</v>
       </c>
       <c r="I229" s="1" t="n">
-        <f aca="false">B229+$C$4*4</f>
-        <v>22710160</v>
+        <f aca="false">B229+$C$4*3</f>
+        <v>22690220</v>
       </c>
       <c r="J229" s="1" t="n">
         <f aca="false">B229+$C$4*4</f>
@@ -9784,8 +9870,8 @@
         <v>22772680</v>
       </c>
       <c r="I230" s="1" t="n">
-        <f aca="false">B230+$C$4*4</f>
-        <v>22812560</v>
+        <f aca="false">B230+$C$4*3</f>
+        <v>22792620</v>
       </c>
       <c r="J230" s="1" t="n">
         <f aca="false">B230+$C$4*4</f>
@@ -9825,8 +9911,8 @@
         <v>22875080</v>
       </c>
       <c r="I231" s="1" t="n">
-        <f aca="false">B231+$C$4*4</f>
-        <v>22914960</v>
+        <f aca="false">B231+$C$4*3</f>
+        <v>22895020</v>
       </c>
       <c r="J231" s="1" t="n">
         <f aca="false">B231+$C$4*4</f>
@@ -9866,8 +9952,8 @@
         <v>22977480</v>
       </c>
       <c r="I232" s="1" t="n">
-        <f aca="false">B232+$C$4*4</f>
-        <v>23017360</v>
+        <f aca="false">B232+$C$4*3</f>
+        <v>22997420</v>
       </c>
       <c r="J232" s="1" t="n">
         <f aca="false">B232+$C$4*4</f>
@@ -9907,8 +9993,8 @@
         <v>23079880</v>
       </c>
       <c r="I233" s="1" t="n">
-        <f aca="false">B233+$C$4*4</f>
-        <v>23119760</v>
+        <f aca="false">B233+$C$4*3</f>
+        <v>23099820</v>
       </c>
       <c r="J233" s="1" t="n">
         <f aca="false">B233+$C$4*4</f>
@@ -9948,8 +10034,8 @@
         <v>23182280</v>
       </c>
       <c r="I234" s="1" t="n">
-        <f aca="false">B234+$C$4*4</f>
-        <v>23222160</v>
+        <f aca="false">B234+$C$4*3</f>
+        <v>23202220</v>
       </c>
       <c r="J234" s="1" t="n">
         <f aca="false">B234+$C$4*4</f>
@@ -9989,8 +10075,8 @@
         <v>23284680</v>
       </c>
       <c r="I235" s="1" t="n">
-        <f aca="false">B235+$C$4*4</f>
-        <v>23324560</v>
+        <f aca="false">B235+$C$4*3</f>
+        <v>23304620</v>
       </c>
       <c r="J235" s="1" t="n">
         <f aca="false">B235+$C$4*4</f>
@@ -10030,8 +10116,8 @@
         <v>23387080</v>
       </c>
       <c r="I236" s="1" t="n">
-        <f aca="false">B236+$C$4*4</f>
-        <v>23426960</v>
+        <f aca="false">B236+$C$4*3</f>
+        <v>23407020</v>
       </c>
       <c r="J236" s="1" t="n">
         <f aca="false">B236+$C$4*4</f>
@@ -10071,8 +10157,8 @@
         <v>23489480</v>
       </c>
       <c r="I237" s="1" t="n">
-        <f aca="false">B237+$C$4*4</f>
-        <v>23529360</v>
+        <f aca="false">B237+$C$4*3</f>
+        <v>23509420</v>
       </c>
       <c r="J237" s="1" t="n">
         <f aca="false">B237+$C$4*4</f>
@@ -10112,8 +10198,8 @@
         <v>23591880</v>
       </c>
       <c r="I238" s="1" t="n">
-        <f aca="false">B238+$C$4*4</f>
-        <v>23631760</v>
+        <f aca="false">B238+$C$4*3</f>
+        <v>23611820</v>
       </c>
       <c r="J238" s="1" t="n">
         <f aca="false">B238+$C$4*4</f>
@@ -10153,8 +10239,8 @@
         <v>23694280</v>
       </c>
       <c r="I239" s="1" t="n">
-        <f aca="false">B239+$C$4*4</f>
-        <v>23734160</v>
+        <f aca="false">B239+$C$4*3</f>
+        <v>23714220</v>
       </c>
       <c r="J239" s="1" t="n">
         <f aca="false">B239+$C$4*4</f>
@@ -10194,8 +10280,8 @@
         <v>23796680</v>
       </c>
       <c r="I240" s="1" t="n">
-        <f aca="false">B240+$C$4*4</f>
-        <v>23836560</v>
+        <f aca="false">B240+$C$4*3</f>
+        <v>23816620</v>
       </c>
       <c r="J240" s="1" t="n">
         <f aca="false">B240+$C$4*4</f>
@@ -10235,8 +10321,8 @@
         <v>23899080</v>
       </c>
       <c r="I241" s="1" t="n">
-        <f aca="false">B241+$C$4*4</f>
-        <v>23938960</v>
+        <f aca="false">B241+$C$4*3</f>
+        <v>23919020</v>
       </c>
       <c r="J241" s="1" t="n">
         <f aca="false">B241+$C$4*4</f>
@@ -10276,8 +10362,8 @@
         <v>24001480</v>
       </c>
       <c r="I242" s="1" t="n">
-        <f aca="false">B242+$C$4*4</f>
-        <v>24041360</v>
+        <f aca="false">B242+$C$4*3</f>
+        <v>24021420</v>
       </c>
       <c r="J242" s="1" t="n">
         <f aca="false">B242+$C$4*4</f>
@@ -10317,8 +10403,8 @@
         <v>24103880</v>
       </c>
       <c r="I243" s="1" t="n">
-        <f aca="false">B243+$C$4*4</f>
-        <v>24143760</v>
+        <f aca="false">B243+$C$4*3</f>
+        <v>24123820</v>
       </c>
       <c r="J243" s="1" t="n">
         <f aca="false">B243+$C$4*4</f>
@@ -10358,8 +10444,8 @@
         <v>24206280</v>
       </c>
       <c r="I244" s="1" t="n">
-        <f aca="false">B244+$C$4*4</f>
-        <v>24246160</v>
+        <f aca="false">B244+$C$4*3</f>
+        <v>24226220</v>
       </c>
       <c r="J244" s="1" t="n">
         <f aca="false">B244+$C$4*4</f>
@@ -10399,8 +10485,8 @@
         <v>24308680</v>
       </c>
       <c r="I245" s="1" t="n">
-        <f aca="false">B245+$C$4*4</f>
-        <v>24348560</v>
+        <f aca="false">B245+$C$4*3</f>
+        <v>24328620</v>
       </c>
       <c r="J245" s="1" t="n">
         <f aca="false">B245+$C$4*4</f>
@@ -10440,8 +10526,8 @@
         <v>24411080</v>
       </c>
       <c r="I246" s="1" t="n">
-        <f aca="false">B246+$C$4*4</f>
-        <v>24450960</v>
+        <f aca="false">B246+$C$4*3</f>
+        <v>24431020</v>
       </c>
       <c r="J246" s="1" t="n">
         <f aca="false">B246+$C$4*4</f>
@@ -10481,8 +10567,8 @@
         <v>24513480</v>
       </c>
       <c r="I247" s="1" t="n">
-        <f aca="false">B247+$C$4*4</f>
-        <v>24553360</v>
+        <f aca="false">B247+$C$4*3</f>
+        <v>24533420</v>
       </c>
       <c r="J247" s="1" t="n">
         <f aca="false">B247+$C$4*4</f>
@@ -10522,8 +10608,8 @@
         <v>24615880</v>
       </c>
       <c r="I248" s="1" t="n">
-        <f aca="false">B248+$C$4*4</f>
-        <v>24655760</v>
+        <f aca="false">B248+$C$4*3</f>
+        <v>24635820</v>
       </c>
       <c r="J248" s="1" t="n">
         <f aca="false">B248+$C$4*4</f>
@@ -10563,8 +10649,8 @@
         <v>24718280</v>
       </c>
       <c r="I249" s="1" t="n">
-        <f aca="false">B249+$C$4*4</f>
-        <v>24758160</v>
+        <f aca="false">B249+$C$4*3</f>
+        <v>24738220</v>
       </c>
       <c r="J249" s="1" t="n">
         <f aca="false">B249+$C$4*4</f>
@@ -10604,8 +10690,8 @@
         <v>24820680</v>
       </c>
       <c r="I250" s="1" t="n">
-        <f aca="false">B250+$C$4*4</f>
-        <v>24860560</v>
+        <f aca="false">B250+$C$4*3</f>
+        <v>24840620</v>
       </c>
       <c r="J250" s="1" t="n">
         <f aca="false">B250+$C$4*4</f>
@@ -10645,8 +10731,8 @@
         <v>24923080</v>
       </c>
       <c r="I251" s="1" t="n">
-        <f aca="false">B251+$C$4*4</f>
-        <v>24962960</v>
+        <f aca="false">B251+$C$4*3</f>
+        <v>24943020</v>
       </c>
       <c r="J251" s="1" t="n">
         <f aca="false">B251+$C$4*4</f>
@@ -10686,8 +10772,8 @@
         <v>25025480</v>
       </c>
       <c r="I252" s="1" t="n">
-        <f aca="false">B252+$C$4*4</f>
-        <v>25065360</v>
+        <f aca="false">B252+$C$4*3</f>
+        <v>25045420</v>
       </c>
       <c r="J252" s="1" t="n">
         <f aca="false">B252+$C$4*4</f>
@@ -10727,8 +10813,8 @@
         <v>25127880</v>
       </c>
       <c r="I253" s="1" t="n">
-        <f aca="false">B253+$C$4*4</f>
-        <v>25167760</v>
+        <f aca="false">B253+$C$4*3</f>
+        <v>25147820</v>
       </c>
       <c r="J253" s="1" t="n">
         <f aca="false">B253+$C$4*4</f>
@@ -10768,8 +10854,8 @@
         <v>25230280</v>
       </c>
       <c r="I254" s="1" t="n">
-        <f aca="false">B254+$C$4*4</f>
-        <v>25270160</v>
+        <f aca="false">B254+$C$4*3</f>
+        <v>25250220</v>
       </c>
       <c r="J254" s="1" t="n">
         <f aca="false">B254+$C$4*4</f>
@@ -10809,8 +10895,8 @@
         <v>25332680</v>
       </c>
       <c r="I255" s="1" t="n">
-        <f aca="false">B255+$C$4*4</f>
-        <v>25372560</v>
+        <f aca="false">B255+$C$4*3</f>
+        <v>25352620</v>
       </c>
       <c r="J255" s="1" t="n">
         <f aca="false">B255+$C$4*4</f>
@@ -10850,8 +10936,8 @@
         <v>25435080</v>
       </c>
       <c r="I256" s="1" t="n">
-        <f aca="false">B256+$C$4*4</f>
-        <v>25474960</v>
+        <f aca="false">B256+$C$4*3</f>
+        <v>25455020</v>
       </c>
       <c r="J256" s="1" t="n">
         <f aca="false">B256+$C$4*4</f>
@@ -10891,8 +10977,8 @@
         <v>25537480</v>
       </c>
       <c r="I257" s="1" t="n">
-        <f aca="false">B257+$C$4*4</f>
-        <v>25577360</v>
+        <f aca="false">B257+$C$4*3</f>
+        <v>25557420</v>
       </c>
       <c r="J257" s="1" t="n">
         <f aca="false">B257+$C$4*4</f>
@@ -10932,8 +11018,8 @@
         <v>25639880</v>
       </c>
       <c r="I258" s="1" t="n">
-        <f aca="false">B258+$C$4*4</f>
-        <v>25679760</v>
+        <f aca="false">B258+$C$4*3</f>
+        <v>25659820</v>
       </c>
       <c r="J258" s="1" t="n">
         <f aca="false">B258+$C$4*4</f>
@@ -10973,8 +11059,8 @@
         <v>25742280</v>
       </c>
       <c r="I259" s="1" t="n">
-        <f aca="false">B259+$C$4*4</f>
-        <v>25782160</v>
+        <f aca="false">B259+$C$4*3</f>
+        <v>25762220</v>
       </c>
       <c r="J259" s="1" t="n">
         <f aca="false">B259+$C$4*4</f>
@@ -11014,8 +11100,8 @@
         <v>25844680</v>
       </c>
       <c r="I260" s="1" t="n">
-        <f aca="false">B260+$C$4*4</f>
-        <v>25884560</v>
+        <f aca="false">B260+$C$4*3</f>
+        <v>25864620</v>
       </c>
       <c r="J260" s="1" t="n">
         <f aca="false">B260+$C$4*4</f>
@@ -11055,8 +11141,8 @@
         <v>25947080</v>
       </c>
       <c r="I261" s="1" t="n">
-        <f aca="false">B261+$C$4*4</f>
-        <v>25986960</v>
+        <f aca="false">B261+$C$4*3</f>
+        <v>25967020</v>
       </c>
       <c r="J261" s="1" t="n">
         <f aca="false">B261+$C$4*4</f>
@@ -11096,8 +11182,8 @@
         <v>26049480</v>
       </c>
       <c r="I262" s="1" t="n">
-        <f aca="false">B262+$C$4*4</f>
-        <v>26089360</v>
+        <f aca="false">B262+$C$4*3</f>
+        <v>26069420</v>
       </c>
       <c r="J262" s="1" t="n">
         <f aca="false">B262+$C$4*4</f>
@@ -11137,8 +11223,8 @@
         <v>26151880</v>
       </c>
       <c r="I263" s="1" t="n">
-        <f aca="false">B263+$C$4*4</f>
-        <v>26191760</v>
+        <f aca="false">B263+$C$4*3</f>
+        <v>26171820</v>
       </c>
       <c r="J263" s="1" t="n">
         <f aca="false">B263+$C$4*4</f>
@@ -11178,8 +11264,8 @@
         <v>26254280</v>
       </c>
       <c r="I264" s="1" t="n">
-        <f aca="false">B264+$C$4*4</f>
-        <v>26294160</v>
+        <f aca="false">B264+$C$4*3</f>
+        <v>26274220</v>
       </c>
       <c r="J264" s="1" t="n">
         <f aca="false">B264+$C$4*4</f>
@@ -11219,8 +11305,8 @@
         <v>26356680</v>
       </c>
       <c r="I265" s="1" t="n">
-        <f aca="false">B265+$C$4*4</f>
-        <v>26396560</v>
+        <f aca="false">B265+$C$4*3</f>
+        <v>26376620</v>
       </c>
       <c r="J265" s="1" t="n">
         <f aca="false">B265+$C$4*4</f>
@@ -11260,8 +11346,8 @@
         <v>26459080</v>
       </c>
       <c r="I266" s="1" t="n">
-        <f aca="false">B266+$C$4*4</f>
-        <v>26498960</v>
+        <f aca="false">B266+$C$4*3</f>
+        <v>26479020</v>
       </c>
       <c r="J266" s="1" t="n">
         <f aca="false">B266+$C$4*4</f>
@@ -11301,8 +11387,8 @@
         <v>26561480</v>
       </c>
       <c r="I267" s="1" t="n">
-        <f aca="false">B267+$C$4*4</f>
-        <v>26601360</v>
+        <f aca="false">B267+$C$4*3</f>
+        <v>26581420</v>
       </c>
       <c r="J267" s="1" t="n">
         <f aca="false">B267+$C$4*4</f>
@@ -11342,8 +11428,8 @@
         <v>26663880</v>
       </c>
       <c r="I268" s="1" t="n">
-        <f aca="false">B268+$C$4*4</f>
-        <v>26703760</v>
+        <f aca="false">B268+$C$4*3</f>
+        <v>26683820</v>
       </c>
       <c r="J268" s="1" t="n">
         <f aca="false">B268+$C$4*4</f>
@@ -11383,8 +11469,8 @@
         <v>26766280</v>
       </c>
       <c r="I269" s="1" t="n">
-        <f aca="false">B269+$C$4*4</f>
-        <v>26806160</v>
+        <f aca="false">B269+$C$4*3</f>
+        <v>26786220</v>
       </c>
       <c r="J269" s="1" t="n">
         <f aca="false">B269+$C$4*4</f>
@@ -11424,8 +11510,8 @@
         <v>26868680</v>
       </c>
       <c r="I270" s="1" t="n">
-        <f aca="false">B270+$C$4*4</f>
-        <v>26908560</v>
+        <f aca="false">B270+$C$4*3</f>
+        <v>26888620</v>
       </c>
       <c r="J270" s="1" t="n">
         <f aca="false">B270+$C$4*4</f>
@@ -11465,8 +11551,8 @@
         <v>26971080</v>
       </c>
       <c r="I271" s="1" t="n">
-        <f aca="false">B271+$C$4*4</f>
-        <v>27010960</v>
+        <f aca="false">B271+$C$4*3</f>
+        <v>26991020</v>
       </c>
       <c r="J271" s="1" t="n">
         <f aca="false">B271+$C$4*4</f>
@@ -11506,8 +11592,8 @@
         <v>27073480</v>
       </c>
       <c r="I272" s="1" t="n">
-        <f aca="false">B272+$C$4*4</f>
-        <v>27113360</v>
+        <f aca="false">B272+$C$4*3</f>
+        <v>27093420</v>
       </c>
       <c r="J272" s="1" t="n">
         <f aca="false">B272+$C$4*4</f>
@@ -11547,8 +11633,8 @@
         <v>27175880</v>
       </c>
       <c r="I273" s="1" t="n">
-        <f aca="false">B273+$C$4*4</f>
-        <v>27215760</v>
+        <f aca="false">B273+$C$4*3</f>
+        <v>27195820</v>
       </c>
       <c r="J273" s="1" t="n">
         <f aca="false">B273+$C$4*4</f>
@@ -11588,8 +11674,8 @@
         <v>27278280</v>
       </c>
       <c r="I274" s="1" t="n">
-        <f aca="false">B274+$C$4*4</f>
-        <v>27318160</v>
+        <f aca="false">B274+$C$4*3</f>
+        <v>27298220</v>
       </c>
       <c r="J274" s="1" t="n">
         <f aca="false">B274+$C$4*4</f>
@@ -11629,8 +11715,8 @@
         <v>27380680</v>
       </c>
       <c r="I275" s="1" t="n">
-        <f aca="false">B275+$C$4*4</f>
-        <v>27420560</v>
+        <f aca="false">B275+$C$4*3</f>
+        <v>27400620</v>
       </c>
       <c r="J275" s="1" t="n">
         <f aca="false">B275+$C$4*4</f>
@@ -11670,8 +11756,8 @@
         <v>27483080</v>
       </c>
       <c r="I276" s="1" t="n">
-        <f aca="false">B276+$C$4*4</f>
-        <v>27522960</v>
+        <f aca="false">B276+$C$4*3</f>
+        <v>27503020</v>
       </c>
       <c r="J276" s="1" t="n">
         <f aca="false">B276+$C$4*4</f>
@@ -11711,8 +11797,8 @@
         <v>27585480</v>
       </c>
       <c r="I277" s="1" t="n">
-        <f aca="false">B277+$C$4*4</f>
-        <v>27625360</v>
+        <f aca="false">B277+$C$4*3</f>
+        <v>27605420</v>
       </c>
       <c r="J277" s="1" t="n">
         <f aca="false">B277+$C$4*4</f>
@@ -11752,8 +11838,8 @@
         <v>27687880</v>
       </c>
       <c r="I278" s="1" t="n">
-        <f aca="false">B278+$C$4*4</f>
-        <v>27727760</v>
+        <f aca="false">B278+$C$4*3</f>
+        <v>27707820</v>
       </c>
       <c r="J278" s="1" t="n">
         <f aca="false">B278+$C$4*4</f>
@@ -11793,8 +11879,8 @@
         <v>27790280</v>
       </c>
       <c r="I279" s="1" t="n">
-        <f aca="false">B279+$C$4*4</f>
-        <v>27830160</v>
+        <f aca="false">B279+$C$4*3</f>
+        <v>27810220</v>
       </c>
       <c r="J279" s="1" t="n">
         <f aca="false">B279+$C$4*4</f>
@@ -11834,8 +11920,8 @@
         <v>27892680</v>
       </c>
       <c r="I280" s="1" t="n">
-        <f aca="false">B280+$C$4*4</f>
-        <v>27932560</v>
+        <f aca="false">B280+$C$4*3</f>
+        <v>27912620</v>
       </c>
       <c r="J280" s="1" t="n">
         <f aca="false">B280+$C$4*4</f>
@@ -11875,8 +11961,8 @@
         <v>27995080</v>
       </c>
       <c r="I281" s="1" t="n">
-        <f aca="false">B281+$C$4*4</f>
-        <v>28034960</v>
+        <f aca="false">B281+$C$4*3</f>
+        <v>28015020</v>
       </c>
       <c r="J281" s="1" t="n">
         <f aca="false">B281+$C$4*4</f>
@@ -11916,8 +12002,8 @@
         <v>28097480</v>
       </c>
       <c r="I282" s="1" t="n">
-        <f aca="false">B282+$C$4*4</f>
-        <v>28137360</v>
+        <f aca="false">B282+$C$4*3</f>
+        <v>28117420</v>
       </c>
       <c r="J282" s="1" t="n">
         <f aca="false">B282+$C$4*4</f>
@@ -11957,8 +12043,8 @@
         <v>28199880</v>
       </c>
       <c r="I283" s="1" t="n">
-        <f aca="false">B283+$C$4*4</f>
-        <v>28239760</v>
+        <f aca="false">B283+$C$4*3</f>
+        <v>28219820</v>
       </c>
       <c r="J283" s="1" t="n">
         <f aca="false">B283+$C$4*4</f>
@@ -11998,8 +12084,8 @@
         <v>28302280</v>
       </c>
       <c r="I284" s="1" t="n">
-        <f aca="false">B284+$C$4*4</f>
-        <v>28342160</v>
+        <f aca="false">B284+$C$4*3</f>
+        <v>28322220</v>
       </c>
       <c r="J284" s="1" t="n">
         <f aca="false">B284+$C$4*4</f>
@@ -12039,8 +12125,8 @@
         <v>28404680</v>
       </c>
       <c r="I285" s="1" t="n">
-        <f aca="false">B285+$C$4*4</f>
-        <v>28444560</v>
+        <f aca="false">B285+$C$4*3</f>
+        <v>28424620</v>
       </c>
       <c r="J285" s="1" t="n">
         <f aca="false">B285+$C$4*4</f>
@@ -12080,8 +12166,8 @@
         <v>28507080</v>
       </c>
       <c r="I286" s="1" t="n">
-        <f aca="false">B286+$C$4*4</f>
-        <v>28546960</v>
+        <f aca="false">B286+$C$4*3</f>
+        <v>28527020</v>
       </c>
       <c r="J286" s="1" t="n">
         <f aca="false">B286+$C$4*4</f>
@@ -12121,8 +12207,8 @@
         <v>28609480</v>
       </c>
       <c r="I287" s="1" t="n">
-        <f aca="false">B287+$C$4*4</f>
-        <v>28649360</v>
+        <f aca="false">B287+$C$4*3</f>
+        <v>28629420</v>
       </c>
       <c r="J287" s="1" t="n">
         <f aca="false">B287+$C$4*4</f>
@@ -12162,8 +12248,8 @@
         <v>28711880</v>
       </c>
       <c r="I288" s="1" t="n">
-        <f aca="false">B288+$C$4*4</f>
-        <v>28751760</v>
+        <f aca="false">B288+$C$4*3</f>
+        <v>28731820</v>
       </c>
       <c r="J288" s="1" t="n">
         <f aca="false">B288+$C$4*4</f>
@@ -12203,8 +12289,8 @@
         <v>28814280</v>
       </c>
       <c r="I289" s="1" t="n">
-        <f aca="false">B289+$C$4*4</f>
-        <v>28854160</v>
+        <f aca="false">B289+$C$4*3</f>
+        <v>28834220</v>
       </c>
       <c r="J289" s="1" t="n">
         <f aca="false">B289+$C$4*4</f>
@@ -12244,8 +12330,8 @@
         <v>28916680</v>
       </c>
       <c r="I290" s="1" t="n">
-        <f aca="false">B290+$C$4*4</f>
-        <v>28956560</v>
+        <f aca="false">B290+$C$4*3</f>
+        <v>28936620</v>
       </c>
       <c r="J290" s="1" t="n">
         <f aca="false">B290+$C$4*4</f>
@@ -12285,8 +12371,8 @@
         <v>29019080</v>
       </c>
       <c r="I291" s="1" t="n">
-        <f aca="false">B291+$C$4*4</f>
-        <v>29058960</v>
+        <f aca="false">B291+$C$4*3</f>
+        <v>29039020</v>
       </c>
       <c r="J291" s="1" t="n">
         <f aca="false">B291+$C$4*4</f>
@@ -12326,8 +12412,8 @@
         <v>29121480</v>
       </c>
       <c r="I292" s="1" t="n">
-        <f aca="false">B292+$C$4*4</f>
-        <v>29161360</v>
+        <f aca="false">B292+$C$4*3</f>
+        <v>29141420</v>
       </c>
       <c r="J292" s="1" t="n">
         <f aca="false">B292+$C$4*4</f>
@@ -12367,8 +12453,8 @@
         <v>29223880</v>
       </c>
       <c r="I293" s="1" t="n">
-        <f aca="false">B293+$C$4*4</f>
-        <v>29263760</v>
+        <f aca="false">B293+$C$4*3</f>
+        <v>29243820</v>
       </c>
       <c r="J293" s="1" t="n">
         <f aca="false">B293+$C$4*4</f>
@@ -12408,8 +12494,8 @@
         <v>29326280</v>
       </c>
       <c r="I294" s="1" t="n">
-        <f aca="false">B294+$C$4*4</f>
-        <v>29366160</v>
+        <f aca="false">B294+$C$4*3</f>
+        <v>29346220</v>
       </c>
       <c r="J294" s="1" t="n">
         <f aca="false">B294+$C$4*4</f>
@@ -12449,8 +12535,8 @@
         <v>29428680</v>
       </c>
       <c r="I295" s="1" t="n">
-        <f aca="false">B295+$C$4*4</f>
-        <v>29468560</v>
+        <f aca="false">B295+$C$4*3</f>
+        <v>29448620</v>
       </c>
       <c r="J295" s="1" t="n">
         <f aca="false">B295+$C$4*4</f>
@@ -12490,8 +12576,8 @@
         <v>29531080</v>
       </c>
       <c r="I296" s="1" t="n">
-        <f aca="false">B296+$C$4*4</f>
-        <v>29570960</v>
+        <f aca="false">B296+$C$4*3</f>
+        <v>29551020</v>
       </c>
       <c r="J296" s="1" t="n">
         <f aca="false">B296+$C$4*4</f>
@@ -12531,8 +12617,8 @@
         <v>29633480</v>
       </c>
       <c r="I297" s="1" t="n">
-        <f aca="false">B297+$C$4*4</f>
-        <v>29673360</v>
+        <f aca="false">B297+$C$4*3</f>
+        <v>29653420</v>
       </c>
       <c r="J297" s="1" t="n">
         <f aca="false">B297+$C$4*4</f>
@@ -12572,8 +12658,8 @@
         <v>29735880</v>
       </c>
       <c r="I298" s="1" t="n">
-        <f aca="false">B298+$C$4*4</f>
-        <v>29775760</v>
+        <f aca="false">B298+$C$4*3</f>
+        <v>29755820</v>
       </c>
       <c r="J298" s="1" t="n">
         <f aca="false">B298+$C$4*4</f>
@@ -12613,8 +12699,8 @@
         <v>29838280</v>
       </c>
       <c r="I299" s="1" t="n">
-        <f aca="false">B299+$C$4*4</f>
-        <v>29878160</v>
+        <f aca="false">B299+$C$4*3</f>
+        <v>29858220</v>
       </c>
       <c r="J299" s="1" t="n">
         <f aca="false">B299+$C$4*4</f>
@@ -12654,8 +12740,8 @@
         <v>29940680</v>
       </c>
       <c r="I300" s="1" t="n">
-        <f aca="false">B300+$C$4*4</f>
-        <v>29980560</v>
+        <f aca="false">B300+$C$4*3</f>
+        <v>29960620</v>
       </c>
       <c r="J300" s="1" t="n">
         <f aca="false">B300+$C$4*4</f>
@@ -12695,8 +12781,8 @@
         <v>30043080</v>
       </c>
       <c r="I301" s="1" t="n">
-        <f aca="false">B301+$C$4*4</f>
-        <v>30082960</v>
+        <f aca="false">B301+$C$4*3</f>
+        <v>30063020</v>
       </c>
       <c r="J301" s="1" t="n">
         <f aca="false">B301+$C$4*4</f>
@@ -12736,8 +12822,8 @@
         <v>30145480</v>
       </c>
       <c r="I302" s="1" t="n">
-        <f aca="false">B302+$C$4*4</f>
-        <v>30185360</v>
+        <f aca="false">B302+$C$4*3</f>
+        <v>30165420</v>
       </c>
       <c r="J302" s="1" t="n">
         <f aca="false">B302+$C$4*4</f>
@@ -12777,8 +12863,8 @@
         <v>30247880</v>
       </c>
       <c r="I303" s="1" t="n">
-        <f aca="false">B303+$C$4*4</f>
-        <v>30287760</v>
+        <f aca="false">B303+$C$4*3</f>
+        <v>30267820</v>
       </c>
       <c r="J303" s="1" t="n">
         <f aca="false">B303+$C$4*4</f>
@@ -12818,8 +12904,8 @@
         <v>30350280</v>
       </c>
       <c r="I304" s="1" t="n">
-        <f aca="false">B304+$C$4*4</f>
-        <v>30390160</v>
+        <f aca="false">B304+$C$4*3</f>
+        <v>30370220</v>
       </c>
       <c r="J304" s="1" t="n">
         <f aca="false">B304+$C$4*4</f>
@@ -12859,8 +12945,8 @@
         <v>30452680</v>
       </c>
       <c r="I305" s="1" t="n">
-        <f aca="false">B305+$C$4*4</f>
-        <v>30492560</v>
+        <f aca="false">B305+$C$4*3</f>
+        <v>30472620</v>
       </c>
       <c r="J305" s="1" t="n">
         <f aca="false">B305+$C$4*4</f>
@@ -12900,8 +12986,8 @@
         <v>30555080</v>
       </c>
       <c r="I306" s="1" t="n">
-        <f aca="false">B306+$C$4*4</f>
-        <v>30594960</v>
+        <f aca="false">B306+$C$4*3</f>
+        <v>30575020</v>
       </c>
       <c r="J306" s="1" t="n">
         <f aca="false">B306+$C$4*4</f>
@@ -12941,8 +13027,8 @@
         <v>30657480</v>
       </c>
       <c r="I307" s="1" t="n">
-        <f aca="false">B307+$C$4*4</f>
-        <v>30697360</v>
+        <f aca="false">B307+$C$4*3</f>
+        <v>30677420</v>
       </c>
       <c r="J307" s="1" t="n">
         <f aca="false">B307+$C$4*4</f>
@@ -12982,8 +13068,8 @@
         <v>30759880</v>
       </c>
       <c r="I308" s="1" t="n">
-        <f aca="false">B308+$C$4*4</f>
-        <v>30799760</v>
+        <f aca="false">B308+$C$4*3</f>
+        <v>30779820</v>
       </c>
       <c r="J308" s="1" t="n">
         <f aca="false">B308+$C$4*4</f>
@@ -13023,8 +13109,8 @@
         <v>30862280</v>
       </c>
       <c r="I309" s="1" t="n">
-        <f aca="false">B309+$C$4*4</f>
-        <v>30902160</v>
+        <f aca="false">B309+$C$4*3</f>
+        <v>30882220</v>
       </c>
       <c r="J309" s="1" t="n">
         <f aca="false">B309+$C$4*4</f>
@@ -13064,8 +13150,8 @@
         <v>30964680</v>
       </c>
       <c r="I310" s="1" t="n">
-        <f aca="false">B310+$C$4*4</f>
-        <v>31004560</v>
+        <f aca="false">B310+$C$4*3</f>
+        <v>30984620</v>
       </c>
       <c r="J310" s="1" t="n">
         <f aca="false">B310+$C$4*4</f>
@@ -13105,8 +13191,8 @@
         <v>31067080</v>
       </c>
       <c r="I311" s="1" t="n">
-        <f aca="false">B311+$C$4*4</f>
-        <v>31106960</v>
+        <f aca="false">B311+$C$4*3</f>
+        <v>31087020</v>
       </c>
       <c r="J311" s="1" t="n">
         <f aca="false">B311+$C$4*4</f>
@@ -13146,8 +13232,8 @@
         <v>31169480</v>
       </c>
       <c r="I312" s="1" t="n">
-        <f aca="false">B312+$C$4*4</f>
-        <v>31209360</v>
+        <f aca="false">B312+$C$4*3</f>
+        <v>31189420</v>
       </c>
       <c r="J312" s="1" t="n">
         <f aca="false">B312+$C$4*4</f>
@@ -13187,8 +13273,8 @@
         <v>31271880</v>
       </c>
       <c r="I313" s="1" t="n">
-        <f aca="false">B313+$C$4*4</f>
-        <v>31311760</v>
+        <f aca="false">B313+$C$4*3</f>
+        <v>31291820</v>
       </c>
       <c r="J313" s="1" t="n">
         <f aca="false">B313+$C$4*4</f>
@@ -13228,8 +13314,8 @@
         <v>31374280</v>
       </c>
       <c r="I314" s="1" t="n">
-        <f aca="false">B314+$C$4*4</f>
-        <v>31414160</v>
+        <f aca="false">B314+$C$4*3</f>
+        <v>31394220</v>
       </c>
       <c r="J314" s="1" t="n">
         <f aca="false">B314+$C$4*4</f>
@@ -13269,8 +13355,8 @@
         <v>31476680</v>
       </c>
       <c r="I315" s="1" t="n">
-        <f aca="false">B315+$C$4*4</f>
-        <v>31516560</v>
+        <f aca="false">B315+$C$4*3</f>
+        <v>31496620</v>
       </c>
       <c r="J315" s="1" t="n">
         <f aca="false">B315+$C$4*4</f>
@@ -13310,8 +13396,8 @@
         <v>31579080</v>
       </c>
       <c r="I316" s="1" t="n">
-        <f aca="false">B316+$C$4*4</f>
-        <v>31618960</v>
+        <f aca="false">B316+$C$4*3</f>
+        <v>31599020</v>
       </c>
       <c r="J316" s="1" t="n">
         <f aca="false">B316+$C$4*4</f>
@@ -13351,8 +13437,8 @@
         <v>31681480</v>
       </c>
       <c r="I317" s="1" t="n">
-        <f aca="false">B317+$C$4*4</f>
-        <v>31721360</v>
+        <f aca="false">B317+$C$4*3</f>
+        <v>31701420</v>
       </c>
       <c r="J317" s="1" t="n">
         <f aca="false">B317+$C$4*4</f>
@@ -13392,8 +13478,8 @@
         <v>31783880</v>
       </c>
       <c r="I318" s="1" t="n">
-        <f aca="false">B318+$C$4*4</f>
-        <v>31823760</v>
+        <f aca="false">B318+$C$4*3</f>
+        <v>31803820</v>
       </c>
       <c r="J318" s="1" t="n">
         <f aca="false">B318+$C$4*4</f>
@@ -13433,8 +13519,8 @@
         <v>31886280</v>
       </c>
       <c r="I319" s="1" t="n">
-        <f aca="false">B319+$C$4*4</f>
-        <v>31926160</v>
+        <f aca="false">B319+$C$4*3</f>
+        <v>31906220</v>
       </c>
       <c r="J319" s="1" t="n">
         <f aca="false">B319+$C$4*4</f>
@@ -13474,8 +13560,8 @@
         <v>31988680</v>
       </c>
       <c r="I320" s="1" t="n">
-        <f aca="false">B320+$C$4*4</f>
-        <v>32028560</v>
+        <f aca="false">B320+$C$4*3</f>
+        <v>32008620</v>
       </c>
       <c r="J320" s="1" t="n">
         <f aca="false">B320+$C$4*4</f>
@@ -13515,8 +13601,8 @@
         <v>32091080</v>
       </c>
       <c r="I321" s="1" t="n">
-        <f aca="false">B321+$C$4*4</f>
-        <v>32130960</v>
+        <f aca="false">B321+$C$4*3</f>
+        <v>32111020</v>
       </c>
       <c r="J321" s="1" t="n">
         <f aca="false">B321+$C$4*4</f>
@@ -13556,8 +13642,8 @@
         <v>32193480</v>
       </c>
       <c r="I322" s="1" t="n">
-        <f aca="false">B322+$C$4*4</f>
-        <v>32233360</v>
+        <f aca="false">B322+$C$4*3</f>
+        <v>32213420</v>
       </c>
       <c r="J322" s="1" t="n">
         <f aca="false">B322+$C$4*4</f>
@@ -13597,8 +13683,8 @@
         <v>32295880</v>
       </c>
       <c r="I323" s="1" t="n">
-        <f aca="false">B323+$C$4*4</f>
-        <v>32335760</v>
+        <f aca="false">B323+$C$4*3</f>
+        <v>32315820</v>
       </c>
       <c r="J323" s="1" t="n">
         <f aca="false">B323+$C$4*4</f>
@@ -13638,8 +13724,8 @@
         <v>32398280</v>
       </c>
       <c r="I324" s="1" t="n">
-        <f aca="false">B324+$C$4*4</f>
-        <v>32438160</v>
+        <f aca="false">B324+$C$4*3</f>
+        <v>32418220</v>
       </c>
       <c r="J324" s="1" t="n">
         <f aca="false">B324+$C$4*4</f>
@@ -13679,8 +13765,8 @@
         <v>32500680</v>
       </c>
       <c r="I325" s="1" t="n">
-        <f aca="false">B325+$C$4*4</f>
-        <v>32540560</v>
+        <f aca="false">B325+$C$4*3</f>
+        <v>32520620</v>
       </c>
       <c r="J325" s="1" t="n">
         <f aca="false">B325+$C$4*4</f>
@@ -13720,8 +13806,8 @@
         <v>32603080</v>
       </c>
       <c r="I326" s="1" t="n">
-        <f aca="false">B326+$C$4*4</f>
-        <v>32642960</v>
+        <f aca="false">B326+$C$4*3</f>
+        <v>32623020</v>
       </c>
       <c r="J326" s="1" t="n">
         <f aca="false">B326+$C$4*4</f>
@@ -13761,8 +13847,8 @@
         <v>32705480</v>
       </c>
       <c r="I327" s="1" t="n">
-        <f aca="false">B327+$C$4*4</f>
-        <v>32745360</v>
+        <f aca="false">B327+$C$4*3</f>
+        <v>32725420</v>
       </c>
       <c r="J327" s="1" t="n">
         <f aca="false">B327+$C$4*4</f>
@@ -13802,8 +13888,8 @@
         <v>32807880</v>
       </c>
       <c r="I328" s="1" t="n">
-        <f aca="false">B328+$C$4*4</f>
-        <v>32847760</v>
+        <f aca="false">B328+$C$4*3</f>
+        <v>32827820</v>
       </c>
       <c r="J328" s="1" t="n">
         <f aca="false">B328+$C$4*4</f>
@@ -13843,8 +13929,8 @@
         <v>32910280</v>
       </c>
       <c r="I329" s="1" t="n">
-        <f aca="false">B329+$C$4*4</f>
-        <v>32950160</v>
+        <f aca="false">B329+$C$4*3</f>
+        <v>32930220</v>
       </c>
       <c r="J329" s="1" t="n">
         <f aca="false">B329+$C$4*4</f>
@@ -13884,8 +13970,8 @@
         <v>33012680</v>
       </c>
       <c r="I330" s="1" t="n">
-        <f aca="false">B330+$C$4*4</f>
-        <v>33052560</v>
+        <f aca="false">B330+$C$4*3</f>
+        <v>33032620</v>
       </c>
       <c r="J330" s="1" t="n">
         <f aca="false">B330+$C$4*4</f>
@@ -13925,8 +14011,8 @@
         <v>33115080</v>
       </c>
       <c r="I331" s="1" t="n">
-        <f aca="false">B331+$C$4*4</f>
-        <v>33154960</v>
+        <f aca="false">B331+$C$4*3</f>
+        <v>33135020</v>
       </c>
       <c r="J331" s="1" t="n">
         <f aca="false">B331+$C$4*4</f>
@@ -13966,8 +14052,8 @@
         <v>33217480</v>
       </c>
       <c r="I332" s="1" t="n">
-        <f aca="false">B332+$C$4*4</f>
-        <v>33257360</v>
+        <f aca="false">B332+$C$4*3</f>
+        <v>33237420</v>
       </c>
       <c r="J332" s="1" t="n">
         <f aca="false">B332+$C$4*4</f>
@@ -14007,8 +14093,8 @@
         <v>33319880</v>
       </c>
       <c r="I333" s="1" t="n">
-        <f aca="false">B333+$C$4*4</f>
-        <v>33359760</v>
+        <f aca="false">B333+$C$4*3</f>
+        <v>33339820</v>
       </c>
       <c r="J333" s="1" t="n">
         <f aca="false">B333+$C$4*4</f>
@@ -14048,8 +14134,8 @@
         <v>33422280</v>
       </c>
       <c r="I334" s="1" t="n">
-        <f aca="false">B334+$C$4*4</f>
-        <v>33462160</v>
+        <f aca="false">B334+$C$4*3</f>
+        <v>33442220</v>
       </c>
       <c r="J334" s="1" t="n">
         <f aca="false">B334+$C$4*4</f>
@@ -14089,8 +14175,8 @@
         <v>33524680</v>
       </c>
       <c r="I335" s="1" t="n">
-        <f aca="false">B335+$C$4*4</f>
-        <v>33564560</v>
+        <f aca="false">B335+$C$4*3</f>
+        <v>33544620</v>
       </c>
       <c r="J335" s="1" t="n">
         <f aca="false">B335+$C$4*4</f>
@@ -14130,8 +14216,8 @@
         <v>33627080</v>
       </c>
       <c r="I336" s="1" t="n">
-        <f aca="false">B336+$C$4*4</f>
-        <v>33666960</v>
+        <f aca="false">B336+$C$4*3</f>
+        <v>33647020</v>
       </c>
       <c r="J336" s="1" t="n">
         <f aca="false">B336+$C$4*4</f>
@@ -14171,8 +14257,8 @@
         <v>33729480</v>
       </c>
       <c r="I337" s="1" t="n">
-        <f aca="false">B337+$C$4*4</f>
-        <v>33769360</v>
+        <f aca="false">B337+$C$4*3</f>
+        <v>33749420</v>
       </c>
       <c r="J337" s="1" t="n">
         <f aca="false">B337+$C$4*4</f>
@@ -14212,8 +14298,8 @@
         <v>33831880</v>
       </c>
       <c r="I338" s="1" t="n">
-        <f aca="false">B338+$C$4*4</f>
-        <v>33871760</v>
+        <f aca="false">B338+$C$4*3</f>
+        <v>33851820</v>
       </c>
       <c r="J338" s="1" t="n">
         <f aca="false">B338+$C$4*4</f>
@@ -14253,8 +14339,8 @@
         <v>33934280</v>
       </c>
       <c r="I339" s="1" t="n">
-        <f aca="false">B339+$C$4*4</f>
-        <v>33974160</v>
+        <f aca="false">B339+$C$4*3</f>
+        <v>33954220</v>
       </c>
       <c r="J339" s="1" t="n">
         <f aca="false">B339+$C$4*4</f>
@@ -14294,8 +14380,8 @@
         <v>34036680</v>
       </c>
       <c r="I340" s="1" t="n">
-        <f aca="false">B340+$C$4*4</f>
-        <v>34076560</v>
+        <f aca="false">B340+$C$4*3</f>
+        <v>34056620</v>
       </c>
       <c r="J340" s="1" t="n">
         <f aca="false">B340+$C$4*4</f>
@@ -14335,8 +14421,8 @@
         <v>34139080</v>
       </c>
       <c r="I341" s="1" t="n">
-        <f aca="false">B341+$C$4*4</f>
-        <v>34178960</v>
+        <f aca="false">B341+$C$4*3</f>
+        <v>34159020</v>
       </c>
       <c r="J341" s="1" t="n">
         <f aca="false">B341+$C$4*4</f>
@@ -14376,8 +14462,8 @@
         <v>34241480</v>
       </c>
       <c r="I342" s="1" t="n">
-        <f aca="false">B342+$C$4*4</f>
-        <v>34281360</v>
+        <f aca="false">B342+$C$4*3</f>
+        <v>34261420</v>
       </c>
       <c r="J342" s="1" t="n">
         <f aca="false">B342+$C$4*4</f>
@@ -14417,8 +14503,8 @@
         <v>34343880</v>
       </c>
       <c r="I343" s="1" t="n">
-        <f aca="false">B343+$C$4*4</f>
-        <v>34383760</v>
+        <f aca="false">B343+$C$4*3</f>
+        <v>34363820</v>
       </c>
       <c r="J343" s="1" t="n">
         <f aca="false">B343+$C$4*4</f>
@@ -14458,8 +14544,8 @@
         <v>34446280</v>
       </c>
       <c r="I344" s="1" t="n">
-        <f aca="false">B344+$C$4*4</f>
-        <v>34486160</v>
+        <f aca="false">B344+$C$4*3</f>
+        <v>34466220</v>
       </c>
       <c r="J344" s="1" t="n">
         <f aca="false">B344+$C$4*4</f>
@@ -14499,8 +14585,8 @@
         <v>34548680</v>
       </c>
       <c r="I345" s="1" t="n">
-        <f aca="false">B345+$C$4*4</f>
-        <v>34588560</v>
+        <f aca="false">B345+$C$4*3</f>
+        <v>34568620</v>
       </c>
       <c r="J345" s="1" t="n">
         <f aca="false">B345+$C$4*4</f>
@@ -14540,8 +14626,8 @@
         <v>34651080</v>
       </c>
       <c r="I346" s="1" t="n">
-        <f aca="false">B346+$C$4*4</f>
-        <v>34690960</v>
+        <f aca="false">B346+$C$4*3</f>
+        <v>34671020</v>
       </c>
       <c r="J346" s="1" t="n">
         <f aca="false">B346+$C$4*4</f>
@@ -14581,8 +14667,8 @@
         <v>34753480</v>
       </c>
       <c r="I347" s="1" t="n">
-        <f aca="false">B347+$C$4*4</f>
-        <v>34793360</v>
+        <f aca="false">B347+$C$4*3</f>
+        <v>34773420</v>
       </c>
       <c r="J347" s="1" t="n">
         <f aca="false">B347+$C$4*4</f>
@@ -14622,8 +14708,8 @@
         <v>34855880</v>
       </c>
       <c r="I348" s="1" t="n">
-        <f aca="false">B348+$C$4*4</f>
-        <v>34895760</v>
+        <f aca="false">B348+$C$4*3</f>
+        <v>34875820</v>
       </c>
       <c r="J348" s="1" t="n">
         <f aca="false">B348+$C$4*4</f>
@@ -14663,8 +14749,8 @@
         <v>34958280</v>
       </c>
       <c r="I349" s="1" t="n">
-        <f aca="false">B349+$C$4*4</f>
-        <v>34998160</v>
+        <f aca="false">B349+$C$4*3</f>
+        <v>34978220</v>
       </c>
       <c r="J349" s="1" t="n">
         <f aca="false">B349+$C$4*4</f>
@@ -14704,8 +14790,8 @@
         <v>35060680</v>
       </c>
       <c r="I350" s="1" t="n">
-        <f aca="false">B350+$C$4*4</f>
-        <v>35100560</v>
+        <f aca="false">B350+$C$4*3</f>
+        <v>35080620</v>
       </c>
       <c r="J350" s="1" t="n">
         <f aca="false">B350+$C$4*4</f>
@@ -14745,8 +14831,8 @@
         <v>35163080</v>
       </c>
       <c r="I351" s="1" t="n">
-        <f aca="false">B351+$C$4*4</f>
-        <v>35202960</v>
+        <f aca="false">B351+$C$4*3</f>
+        <v>35183020</v>
       </c>
       <c r="J351" s="1" t="n">
         <f aca="false">B351+$C$4*4</f>
@@ -14786,8 +14872,8 @@
         <v>35265480</v>
       </c>
       <c r="I352" s="1" t="n">
-        <f aca="false">B352+$C$4*4</f>
-        <v>35305360</v>
+        <f aca="false">B352+$C$4*3</f>
+        <v>35285420</v>
       </c>
       <c r="J352" s="1" t="n">
         <f aca="false">B352+$C$4*4</f>
@@ -14827,8 +14913,8 @@
         <v>35367880</v>
       </c>
       <c r="I353" s="1" t="n">
-        <f aca="false">B353+$C$4*4</f>
-        <v>35407760</v>
+        <f aca="false">B353+$C$4*3</f>
+        <v>35387820</v>
       </c>
       <c r="J353" s="1" t="n">
         <f aca="false">B353+$C$4*4</f>
@@ -14868,8 +14954,8 @@
         <v>35470280</v>
       </c>
       <c r="I354" s="1" t="n">
-        <f aca="false">B354+$C$4*4</f>
-        <v>35510160</v>
+        <f aca="false">B354+$C$4*3</f>
+        <v>35490220</v>
       </c>
       <c r="J354" s="1" t="n">
         <f aca="false">B354+$C$4*4</f>
@@ -14909,8 +14995,8 @@
         <v>35572680</v>
       </c>
       <c r="I355" s="1" t="n">
-        <f aca="false">B355+$C$4*4</f>
-        <v>35612560</v>
+        <f aca="false">B355+$C$4*3</f>
+        <v>35592620</v>
       </c>
       <c r="J355" s="1" t="n">
         <f aca="false">B355+$C$4*4</f>
@@ -14950,8 +15036,8 @@
         <v>35675080</v>
       </c>
       <c r="I356" s="1" t="n">
-        <f aca="false">B356+$C$4*4</f>
-        <v>35714960</v>
+        <f aca="false">B356+$C$4*3</f>
+        <v>35695020</v>
       </c>
       <c r="J356" s="1" t="n">
         <f aca="false">B356+$C$4*4</f>
@@ -14991,8 +15077,8 @@
         <v>35777480</v>
       </c>
       <c r="I357" s="1" t="n">
-        <f aca="false">B357+$C$4*4</f>
-        <v>35817360</v>
+        <f aca="false">B357+$C$4*3</f>
+        <v>35797420</v>
       </c>
       <c r="J357" s="1" t="n">
         <f aca="false">B357+$C$4*4</f>
@@ -15032,8 +15118,8 @@
         <v>35879880</v>
       </c>
       <c r="I358" s="1" t="n">
-        <f aca="false">B358+$C$4*4</f>
-        <v>35919760</v>
+        <f aca="false">B358+$C$4*3</f>
+        <v>35899820</v>
       </c>
       <c r="J358" s="1" t="n">
         <f aca="false">B358+$C$4*4</f>
@@ -15073,8 +15159,8 @@
         <v>35982280</v>
       </c>
       <c r="I359" s="1" t="n">
-        <f aca="false">B359+$C$4*4</f>
-        <v>36022160</v>
+        <f aca="false">B359+$C$4*3</f>
+        <v>36002220</v>
       </c>
       <c r="J359" s="1" t="n">
         <f aca="false">B359+$C$4*4</f>
@@ -15114,8 +15200,8 @@
         <v>36084680</v>
       </c>
       <c r="I360" s="1" t="n">
-        <f aca="false">B360+$C$4*4</f>
-        <v>36124560</v>
+        <f aca="false">B360+$C$4*3</f>
+        <v>36104620</v>
       </c>
       <c r="J360" s="1" t="n">
         <f aca="false">B360+$C$4*4</f>
@@ -15155,8 +15241,8 @@
         <v>36187080</v>
       </c>
       <c r="I361" s="1" t="n">
-        <f aca="false">B361+$C$4*4</f>
-        <v>36226960</v>
+        <f aca="false">B361+$C$4*3</f>
+        <v>36207020</v>
       </c>
       <c r="J361" s="1" t="n">
         <f aca="false">B361+$C$4*4</f>
@@ -15196,8 +15282,8 @@
         <v>36289480</v>
       </c>
       <c r="I362" s="1" t="n">
-        <f aca="false">B362+$C$4*4</f>
-        <v>36329360</v>
+        <f aca="false">B362+$C$4*3</f>
+        <v>36309420</v>
       </c>
       <c r="J362" s="1" t="n">
         <f aca="false">B362+$C$4*4</f>
@@ -15237,8 +15323,8 @@
         <v>36391880</v>
       </c>
       <c r="I363" s="1" t="n">
-        <f aca="false">B363+$C$4*4</f>
-        <v>36431760</v>
+        <f aca="false">B363+$C$4*3</f>
+        <v>36411820</v>
       </c>
       <c r="J363" s="1" t="n">
         <f aca="false">B363+$C$4*4</f>
@@ -15278,8 +15364,8 @@
         <v>36494280</v>
       </c>
       <c r="I364" s="1" t="n">
-        <f aca="false">B364+$C$4*4</f>
-        <v>36534160</v>
+        <f aca="false">B364+$C$4*3</f>
+        <v>36514220</v>
       </c>
       <c r="J364" s="1" t="n">
         <f aca="false">B364+$C$4*4</f>
@@ -15319,8 +15405,8 @@
         <v>36596680</v>
       </c>
       <c r="I365" s="1" t="n">
-        <f aca="false">B365+$C$4*4</f>
-        <v>36636560</v>
+        <f aca="false">B365+$C$4*3</f>
+        <v>36616620</v>
       </c>
       <c r="J365" s="1" t="n">
         <f aca="false">B365+$C$4*4</f>
@@ -15360,8 +15446,8 @@
         <v>36699080</v>
       </c>
       <c r="I366" s="1" t="n">
-        <f aca="false">B366+$C$4*4</f>
-        <v>36738960</v>
+        <f aca="false">B366+$C$4*3</f>
+        <v>36719020</v>
       </c>
       <c r="J366" s="1" t="n">
         <f aca="false">B366+$C$4*4</f>
@@ -15401,8 +15487,8 @@
         <v>36801480</v>
       </c>
       <c r="I367" s="1" t="n">
-        <f aca="false">B367+$C$4*4</f>
-        <v>36841360</v>
+        <f aca="false">B367+$C$4*3</f>
+        <v>36821420</v>
       </c>
       <c r="J367" s="1" t="n">
         <f aca="false">B367+$C$4*4</f>
@@ -15442,8 +15528,8 @@
         <v>36903880</v>
       </c>
       <c r="I368" s="1" t="n">
-        <f aca="false">B368+$C$4*4</f>
-        <v>36943760</v>
+        <f aca="false">B368+$C$4*3</f>
+        <v>36923820</v>
       </c>
       <c r="J368" s="1" t="n">
         <f aca="false">B368+$C$4*4</f>
@@ -15483,8 +15569,8 @@
         <v>37006280</v>
       </c>
       <c r="I369" s="1" t="n">
-        <f aca="false">B369+$C$4*4</f>
-        <v>37046160</v>
+        <f aca="false">B369+$C$4*3</f>
+        <v>37026220</v>
       </c>
       <c r="J369" s="1" t="n">
         <f aca="false">B369+$C$4*4</f>
@@ -15524,8 +15610,8 @@
         <v>37108680</v>
       </c>
       <c r="I370" s="1" t="n">
-        <f aca="false">B370+$C$4*4</f>
-        <v>37148560</v>
+        <f aca="false">B370+$C$4*3</f>
+        <v>37128620</v>
       </c>
       <c r="J370" s="1" t="n">
         <f aca="false">B370+$C$4*4</f>
@@ -15565,8 +15651,8 @@
         <v>37211080</v>
       </c>
       <c r="I371" s="1" t="n">
-        <f aca="false">B371+$C$4*4</f>
-        <v>37250960</v>
+        <f aca="false">B371+$C$4*3</f>
+        <v>37231020</v>
       </c>
       <c r="J371" s="1" t="n">
         <f aca="false">B371+$C$4*4</f>
@@ -15606,8 +15692,8 @@
         <v>37313480</v>
       </c>
       <c r="I372" s="1" t="n">
-        <f aca="false">B372+$C$4*4</f>
-        <v>37353360</v>
+        <f aca="false">B372+$C$4*3</f>
+        <v>37333420</v>
       </c>
       <c r="J372" s="1" t="n">
         <f aca="false">B372+$C$4*4</f>
@@ -15647,8 +15733,8 @@
         <v>37415880</v>
       </c>
       <c r="I373" s="1" t="n">
-        <f aca="false">B373+$C$4*4</f>
-        <v>37455760</v>
+        <f aca="false">B373+$C$4*3</f>
+        <v>37435820</v>
       </c>
       <c r="J373" s="1" t="n">
         <f aca="false">B373+$C$4*4</f>
@@ -15688,8 +15774,8 @@
         <v>37518280</v>
       </c>
       <c r="I374" s="1" t="n">
-        <f aca="false">B374+$C$4*4</f>
-        <v>37558160</v>
+        <f aca="false">B374+$C$4*3</f>
+        <v>37538220</v>
       </c>
       <c r="J374" s="1" t="n">
         <f aca="false">B374+$C$4*4</f>
@@ -15729,8 +15815,8 @@
         <v>37620680</v>
       </c>
       <c r="I375" s="1" t="n">
-        <f aca="false">B375+$C$4*4</f>
-        <v>37660560</v>
+        <f aca="false">B375+$C$4*3</f>
+        <v>37640620</v>
       </c>
       <c r="J375" s="1" t="n">
         <f aca="false">B375+$C$4*4</f>
@@ -15770,8 +15856,8 @@
         <v>37723080</v>
       </c>
       <c r="I376" s="1" t="n">
-        <f aca="false">B376+$C$4*4</f>
-        <v>37762960</v>
+        <f aca="false">B376+$C$4*3</f>
+        <v>37743020</v>
       </c>
       <c r="J376" s="1" t="n">
         <f aca="false">B376+$C$4*4</f>
@@ -15811,8 +15897,8 @@
         <v>37825480</v>
       </c>
       <c r="I377" s="1" t="n">
-        <f aca="false">B377+$C$4*4</f>
-        <v>37865360</v>
+        <f aca="false">B377+$C$4*3</f>
+        <v>37845420</v>
       </c>
       <c r="J377" s="1" t="n">
         <f aca="false">B377+$C$4*4</f>
@@ -15852,8 +15938,8 @@
         <v>37927880</v>
       </c>
       <c r="I378" s="1" t="n">
-        <f aca="false">B378+$C$4*4</f>
-        <v>37967760</v>
+        <f aca="false">B378+$C$4*3</f>
+        <v>37947820</v>
       </c>
       <c r="J378" s="1" t="n">
         <f aca="false">B378+$C$4*4</f>
@@ -15893,8 +15979,8 @@
         <v>38030280</v>
       </c>
       <c r="I379" s="1" t="n">
-        <f aca="false">B379+$C$4*4</f>
-        <v>38070160</v>
+        <f aca="false">B379+$C$4*3</f>
+        <v>38050220</v>
       </c>
       <c r="J379" s="1" t="n">
         <f aca="false">B379+$C$4*4</f>
@@ -15934,8 +16020,8 @@
         <v>38132680</v>
       </c>
       <c r="I380" s="1" t="n">
-        <f aca="false">B380+$C$4*4</f>
-        <v>38172560</v>
+        <f aca="false">B380+$C$4*3</f>
+        <v>38152620</v>
       </c>
       <c r="J380" s="1" t="n">
         <f aca="false">B380+$C$4*4</f>
@@ -15975,8 +16061,8 @@
         <v>38235080</v>
       </c>
       <c r="I381" s="1" t="n">
-        <f aca="false">B381+$C$4*4</f>
-        <v>38274960</v>
+        <f aca="false">B381+$C$4*3</f>
+        <v>38255020</v>
       </c>
       <c r="J381" s="1" t="n">
         <f aca="false">B381+$C$4*4</f>
@@ -16016,8 +16102,8 @@
         <v>38337480</v>
       </c>
       <c r="I382" s="1" t="n">
-        <f aca="false">B382+$C$4*4</f>
-        <v>38377360</v>
+        <f aca="false">B382+$C$4*3</f>
+        <v>38357420</v>
       </c>
       <c r="J382" s="1" t="n">
         <f aca="false">B382+$C$4*4</f>
@@ -16057,8 +16143,8 @@
         <v>38439880</v>
       </c>
       <c r="I383" s="1" t="n">
-        <f aca="false">B383+$C$4*4</f>
-        <v>38479760</v>
+        <f aca="false">B383+$C$4*3</f>
+        <v>38459820</v>
       </c>
       <c r="J383" s="1" t="n">
         <f aca="false">B383+$C$4*4</f>
@@ -16098,8 +16184,8 @@
         <v>38542280</v>
       </c>
       <c r="I384" s="1" t="n">
-        <f aca="false">B384+$C$4*4</f>
-        <v>38582160</v>
+        <f aca="false">B384+$C$4*3</f>
+        <v>38562220</v>
       </c>
       <c r="J384" s="1" t="n">
         <f aca="false">B384+$C$4*4</f>
@@ -16139,8 +16225,8 @@
         <v>38644680</v>
       </c>
       <c r="I385" s="1" t="n">
-        <f aca="false">B385+$C$4*4</f>
-        <v>38684560</v>
+        <f aca="false">B385+$C$4*3</f>
+        <v>38664620</v>
       </c>
       <c r="J385" s="1" t="n">
         <f aca="false">B385+$C$4*4</f>
@@ -16180,8 +16266,8 @@
         <v>38747080</v>
       </c>
       <c r="I386" s="1" t="n">
-        <f aca="false">B386+$C$4*4</f>
-        <v>38786960</v>
+        <f aca="false">B386+$C$4*3</f>
+        <v>38767020</v>
       </c>
       <c r="J386" s="1" t="n">
         <f aca="false">B386+$C$4*4</f>
@@ -16221,8 +16307,8 @@
         <v>38849480</v>
       </c>
       <c r="I387" s="1" t="n">
-        <f aca="false">B387+$C$4*4</f>
-        <v>38889360</v>
+        <f aca="false">B387+$C$4*3</f>
+        <v>38869420</v>
       </c>
       <c r="J387" s="1" t="n">
         <f aca="false">B387+$C$4*4</f>
@@ -16262,8 +16348,8 @@
         <v>38951880</v>
       </c>
       <c r="I388" s="1" t="n">
-        <f aca="false">B388+$C$4*4</f>
-        <v>38991760</v>
+        <f aca="false">B388+$C$4*3</f>
+        <v>38971820</v>
       </c>
       <c r="J388" s="1" t="n">
         <f aca="false">B388+$C$4*4</f>
@@ -16303,8 +16389,8 @@
         <v>39054280</v>
       </c>
       <c r="I389" s="1" t="n">
-        <f aca="false">B389+$C$4*4</f>
-        <v>39094160</v>
+        <f aca="false">B389+$C$4*3</f>
+        <v>39074220</v>
       </c>
       <c r="J389" s="1" t="n">
         <f aca="false">B389+$C$4*4</f>
@@ -16344,8 +16430,8 @@
         <v>39156680</v>
       </c>
       <c r="I390" s="1" t="n">
-        <f aca="false">B390+$C$4*4</f>
-        <v>39196560</v>
+        <f aca="false">B390+$C$4*3</f>
+        <v>39176620</v>
       </c>
       <c r="J390" s="1" t="n">
         <f aca="false">B390+$C$4*4</f>
@@ -16385,8 +16471,8 @@
         <v>39259080</v>
       </c>
       <c r="I391" s="1" t="n">
-        <f aca="false">B391+$C$4*4</f>
-        <v>39298960</v>
+        <f aca="false">B391+$C$4*3</f>
+        <v>39279020</v>
       </c>
       <c r="J391" s="1" t="n">
         <f aca="false">B391+$C$4*4</f>
@@ -16426,8 +16512,8 @@
         <v>39361480</v>
       </c>
       <c r="I392" s="1" t="n">
-        <f aca="false">B392+$C$4*4</f>
-        <v>39401360</v>
+        <f aca="false">B392+$C$4*3</f>
+        <v>39381420</v>
       </c>
       <c r="J392" s="1" t="n">
         <f aca="false">B392+$C$4*4</f>
@@ -16467,8 +16553,8 @@
         <v>39463880</v>
       </c>
       <c r="I393" s="1" t="n">
-        <f aca="false">B393+$C$4*4</f>
-        <v>39503760</v>
+        <f aca="false">B393+$C$4*3</f>
+        <v>39483820</v>
       </c>
       <c r="J393" s="1" t="n">
         <f aca="false">B393+$C$4*4</f>
@@ -16508,8 +16594,8 @@
         <v>39566280</v>
       </c>
       <c r="I394" s="1" t="n">
-        <f aca="false">B394+$C$4*4</f>
-        <v>39606160</v>
+        <f aca="false">B394+$C$4*3</f>
+        <v>39586220</v>
       </c>
       <c r="J394" s="1" t="n">
         <f aca="false">B394+$C$4*4</f>
@@ -16549,8 +16635,8 @@
         <v>39668680</v>
       </c>
       <c r="I395" s="1" t="n">
-        <f aca="false">B395+$C$4*4</f>
-        <v>39708560</v>
+        <f aca="false">B395+$C$4*3</f>
+        <v>39688620</v>
       </c>
       <c r="J395" s="1" t="n">
         <f aca="false">B395+$C$4*4</f>
@@ -16590,8 +16676,8 @@
         <v>39771080</v>
       </c>
       <c r="I396" s="1" t="n">
-        <f aca="false">B396+$C$4*4</f>
-        <v>39810960</v>
+        <f aca="false">B396+$C$4*3</f>
+        <v>39791020</v>
       </c>
       <c r="J396" s="1" t="n">
         <f aca="false">B396+$C$4*4</f>
@@ -16631,8 +16717,8 @@
         <v>39873480</v>
       </c>
       <c r="I397" s="1" t="n">
-        <f aca="false">B397+$C$4*4</f>
-        <v>39913360</v>
+        <f aca="false">B397+$C$4*3</f>
+        <v>39893420</v>
       </c>
       <c r="J397" s="1" t="n">
         <f aca="false">B397+$C$4*4</f>
@@ -16672,8 +16758,8 @@
         <v>39975880</v>
       </c>
       <c r="I398" s="1" t="n">
-        <f aca="false">B398+$C$4*4</f>
-        <v>40015760</v>
+        <f aca="false">B398+$C$4*3</f>
+        <v>39995820</v>
       </c>
       <c r="J398" s="1" t="n">
         <f aca="false">B398+$C$4*4</f>
@@ -16713,8 +16799,8 @@
         <v>40078280</v>
       </c>
       <c r="I399" s="1" t="n">
-        <f aca="false">B399+$C$4*4</f>
-        <v>40118160</v>
+        <f aca="false">B399+$C$4*3</f>
+        <v>40098220</v>
       </c>
       <c r="J399" s="1" t="n">
         <f aca="false">B399+$C$4*4</f>
@@ -16754,8 +16840,8 @@
         <v>40180680</v>
       </c>
       <c r="I400" s="1" t="n">
-        <f aca="false">B400+$C$4*4</f>
-        <v>40220560</v>
+        <f aca="false">B400+$C$4*3</f>
+        <v>40200620</v>
       </c>
       <c r="J400" s="1" t="n">
         <f aca="false">B400+$C$4*4</f>
@@ -16795,8 +16881,8 @@
         <v>40283080</v>
       </c>
       <c r="I401" s="1" t="n">
-        <f aca="false">B401+$C$4*4</f>
-        <v>40322960</v>
+        <f aca="false">B401+$C$4*3</f>
+        <v>40303020</v>
       </c>
       <c r="J401" s="1" t="n">
         <f aca="false">B401+$C$4*4</f>
@@ -16836,8 +16922,8 @@
         <v>40385480</v>
       </c>
       <c r="I402" s="1" t="n">
-        <f aca="false">B402+$C$4*4</f>
-        <v>40425360</v>
+        <f aca="false">B402+$C$4*3</f>
+        <v>40405420</v>
       </c>
       <c r="J402" s="1" t="n">
         <f aca="false">B402+$C$4*4</f>
@@ -16877,8 +16963,8 @@
         <v>40487880</v>
       </c>
       <c r="I403" s="1" t="n">
-        <f aca="false">B403+$C$4*4</f>
-        <v>40527760</v>
+        <f aca="false">B403+$C$4*3</f>
+        <v>40507820</v>
       </c>
       <c r="J403" s="1" t="n">
         <f aca="false">B403+$C$4*4</f>
@@ -16918,8 +17004,8 @@
         <v>40590280</v>
       </c>
       <c r="I404" s="1" t="n">
-        <f aca="false">B404+$C$4*4</f>
-        <v>40630160</v>
+        <f aca="false">B404+$C$4*3</f>
+        <v>40610220</v>
       </c>
       <c r="J404" s="1" t="n">
         <f aca="false">B404+$C$4*4</f>
@@ -16959,8 +17045,8 @@
         <v>40692680</v>
       </c>
       <c r="I405" s="1" t="n">
-        <f aca="false">B405+$C$4*4</f>
-        <v>40732560</v>
+        <f aca="false">B405+$C$4*3</f>
+        <v>40712620</v>
       </c>
       <c r="J405" s="1" t="n">
         <f aca="false">B405+$C$4*4</f>
@@ -17000,8 +17086,8 @@
         <v>40795080</v>
       </c>
       <c r="I406" s="1" t="n">
-        <f aca="false">B406+$C$4*4</f>
-        <v>40834960</v>
+        <f aca="false">B406+$C$4*3</f>
+        <v>40815020</v>
       </c>
       <c r="J406" s="1" t="n">
         <f aca="false">B406+$C$4*4</f>
@@ -17041,8 +17127,8 @@
         <v>40897480</v>
       </c>
       <c r="I407" s="1" t="n">
-        <f aca="false">B407+$C$4*4</f>
-        <v>40937360</v>
+        <f aca="false">B407+$C$4*3</f>
+        <v>40917420</v>
       </c>
       <c r="J407" s="1" t="n">
         <f aca="false">B407+$C$4*4</f>
@@ -17082,8 +17168,8 @@
         <v>40999880</v>
       </c>
       <c r="I408" s="1" t="n">
-        <f aca="false">B408+$C$4*4</f>
-        <v>41039760</v>
+        <f aca="false">B408+$C$4*3</f>
+        <v>41019820</v>
       </c>
       <c r="J408" s="1" t="n">
         <f aca="false">B408+$C$4*4</f>
@@ -17123,8 +17209,8 @@
         <v>41102280</v>
       </c>
       <c r="I409" s="1" t="n">
-        <f aca="false">B409+$C$4*4</f>
-        <v>41142160</v>
+        <f aca="false">B409+$C$4*3</f>
+        <v>41122220</v>
       </c>
       <c r="J409" s="1" t="n">
         <f aca="false">B409+$C$4*4</f>
@@ -17164,8 +17250,8 @@
         <v>41204680</v>
       </c>
       <c r="I410" s="1" t="n">
-        <f aca="false">B410+$C$4*4</f>
-        <v>41244560</v>
+        <f aca="false">B410+$C$4*3</f>
+        <v>41224620</v>
       </c>
       <c r="J410" s="1" t="n">
         <f aca="false">B410+$C$4*4</f>
@@ -17205,8 +17291,8 @@
         <v>41307080</v>
       </c>
       <c r="I411" s="1" t="n">
-        <f aca="false">B411+$C$4*4</f>
-        <v>41346960</v>
+        <f aca="false">B411+$C$4*3</f>
+        <v>41327020</v>
       </c>
       <c r="J411" s="1" t="n">
         <f aca="false">B411+$C$4*4</f>
@@ -17246,8 +17332,8 @@
         <v>41409480</v>
       </c>
       <c r="I412" s="1" t="n">
-        <f aca="false">B412+$C$4*4</f>
-        <v>41449360</v>
+        <f aca="false">B412+$C$4*3</f>
+        <v>41429420</v>
       </c>
       <c r="J412" s="1" t="n">
         <f aca="false">B412+$C$4*4</f>
@@ -17287,8 +17373,8 @@
         <v>41511880</v>
       </c>
       <c r="I413" s="1" t="n">
-        <f aca="false">B413+$C$4*4</f>
-        <v>41551760</v>
+        <f aca="false">B413+$C$4*3</f>
+        <v>41531820</v>
       </c>
       <c r="J413" s="1" t="n">
         <f aca="false">B413+$C$4*4</f>
@@ -17328,8 +17414,8 @@
         <v>41614280</v>
       </c>
       <c r="I414" s="1" t="n">
-        <f aca="false">B414+$C$4*4</f>
-        <v>41654160</v>
+        <f aca="false">B414+$C$4*3</f>
+        <v>41634220</v>
       </c>
       <c r="J414" s="1" t="n">
         <f aca="false">B414+$C$4*4</f>
@@ -17369,8 +17455,8 @@
         <v>41716680</v>
       </c>
       <c r="I415" s="1" t="n">
-        <f aca="false">B415+$C$4*4</f>
-        <v>41756560</v>
+        <f aca="false">B415+$C$4*3</f>
+        <v>41736620</v>
       </c>
       <c r="J415" s="1" t="n">
         <f aca="false">B415+$C$4*4</f>
@@ -17410,8 +17496,8 @@
         <v>41819080</v>
       </c>
       <c r="I416" s="1" t="n">
-        <f aca="false">B416+$C$4*4</f>
-        <v>41858960</v>
+        <f aca="false">B416+$C$4*3</f>
+        <v>41839020</v>
       </c>
       <c r="J416" s="1" t="n">
         <f aca="false">B416+$C$4*4</f>
@@ -17451,8 +17537,8 @@
         <v>41921480</v>
       </c>
       <c r="I417" s="1" t="n">
-        <f aca="false">B417+$C$4*4</f>
-        <v>41961360</v>
+        <f aca="false">B417+$C$4*3</f>
+        <v>41941420</v>
       </c>
       <c r="J417" s="1" t="n">
         <f aca="false">B417+$C$4*4</f>
@@ -17492,8 +17578,8 @@
         <v>42023880</v>
       </c>
       <c r="I418" s="1" t="n">
-        <f aca="false">B418+$C$4*4</f>
-        <v>42063760</v>
+        <f aca="false">B418+$C$4*3</f>
+        <v>42043820</v>
       </c>
       <c r="J418" s="1" t="n">
         <f aca="false">B418+$C$4*4</f>
@@ -17533,8 +17619,8 @@
         <v>42126280</v>
       </c>
       <c r="I419" s="1" t="n">
-        <f aca="false">B419+$C$4*4</f>
-        <v>42166160</v>
+        <f aca="false">B419+$C$4*3</f>
+        <v>42146220</v>
       </c>
       <c r="J419" s="1" t="n">
         <f aca="false">B419+$C$4*4</f>
@@ -17574,8 +17660,8 @@
         <v>42228680</v>
       </c>
       <c r="I420" s="1" t="n">
-        <f aca="false">B420+$C$4*4</f>
-        <v>42268560</v>
+        <f aca="false">B420+$C$4*3</f>
+        <v>42248620</v>
       </c>
       <c r="J420" s="1" t="n">
         <f aca="false">B420+$C$4*4</f>
@@ -17615,8 +17701,8 @@
         <v>42331080</v>
       </c>
       <c r="I421" s="1" t="n">
-        <f aca="false">B421+$C$4*4</f>
-        <v>42370960</v>
+        <f aca="false">B421+$C$4*3</f>
+        <v>42351020</v>
       </c>
       <c r="J421" s="1" t="n">
         <f aca="false">B421+$C$4*4</f>
@@ -17656,8 +17742,8 @@
         <v>42433480</v>
       </c>
       <c r="I422" s="1" t="n">
-        <f aca="false">B422+$C$4*4</f>
-        <v>42473360</v>
+        <f aca="false">B422+$C$4*3</f>
+        <v>42453420</v>
       </c>
       <c r="J422" s="1" t="n">
         <f aca="false">B422+$C$4*4</f>
@@ -17697,8 +17783,8 @@
         <v>42535880</v>
       </c>
       <c r="I423" s="1" t="n">
-        <f aca="false">B423+$C$4*4</f>
-        <v>42575760</v>
+        <f aca="false">B423+$C$4*3</f>
+        <v>42555820</v>
       </c>
       <c r="J423" s="1" t="n">
         <f aca="false">B423+$C$4*4</f>
@@ -17738,8 +17824,8 @@
         <v>42638280</v>
       </c>
       <c r="I424" s="1" t="n">
-        <f aca="false">B424+$C$4*4</f>
-        <v>42678160</v>
+        <f aca="false">B424+$C$4*3</f>
+        <v>42658220</v>
       </c>
       <c r="J424" s="1" t="n">
         <f aca="false">B424+$C$4*4</f>
@@ -17779,8 +17865,8 @@
         <v>42740680</v>
       </c>
       <c r="I425" s="1" t="n">
-        <f aca="false">B425+$C$4*4</f>
-        <v>42780560</v>
+        <f aca="false">B425+$C$4*3</f>
+        <v>42760620</v>
       </c>
       <c r="J425" s="1" t="n">
         <f aca="false">B425+$C$4*4</f>
@@ -17820,8 +17906,8 @@
         <v>42843080</v>
       </c>
       <c r="I426" s="1" t="n">
-        <f aca="false">B426+$C$4*4</f>
-        <v>42882960</v>
+        <f aca="false">B426+$C$4*3</f>
+        <v>42863020</v>
       </c>
       <c r="J426" s="1" t="n">
         <f aca="false">B426+$C$4*4</f>
@@ -17861,8 +17947,8 @@
         <v>42945480</v>
       </c>
       <c r="I427" s="1" t="n">
-        <f aca="false">B427+$C$4*4</f>
-        <v>42985360</v>
+        <f aca="false">B427+$C$4*3</f>
+        <v>42965420</v>
       </c>
       <c r="J427" s="1" t="n">
         <f aca="false">B427+$C$4*4</f>
@@ -17902,8 +17988,8 @@
         <v>43047880</v>
       </c>
       <c r="I428" s="1" t="n">
-        <f aca="false">B428+$C$4*4</f>
-        <v>43087760</v>
+        <f aca="false">B428+$C$4*3</f>
+        <v>43067820</v>
       </c>
       <c r="J428" s="1" t="n">
         <f aca="false">B428+$C$4*4</f>
@@ -17943,8 +18029,8 @@
         <v>43150280</v>
       </c>
       <c r="I429" s="1" t="n">
-        <f aca="false">B429+$C$4*4</f>
-        <v>43190160</v>
+        <f aca="false">B429+$C$4*3</f>
+        <v>43170220</v>
       </c>
       <c r="J429" s="1" t="n">
         <f aca="false">B429+$C$4*4</f>
@@ -17984,8 +18070,8 @@
         <v>43252680</v>
       </c>
       <c r="I430" s="1" t="n">
-        <f aca="false">B430+$C$4*4</f>
-        <v>43292560</v>
+        <f aca="false">B430+$C$4*3</f>
+        <v>43272620</v>
       </c>
       <c r="J430" s="1" t="n">
         <f aca="false">B430+$C$4*4</f>
@@ -18025,8 +18111,8 @@
         <v>43355080</v>
       </c>
       <c r="I431" s="1" t="n">
-        <f aca="false">B431+$C$4*4</f>
-        <v>43394960</v>
+        <f aca="false">B431+$C$4*3</f>
+        <v>43375020</v>
       </c>
       <c r="J431" s="1" t="n">
         <f aca="false">B431+$C$4*4</f>
@@ -18066,8 +18152,8 @@
         <v>43457480</v>
       </c>
       <c r="I432" s="1" t="n">
-        <f aca="false">B432+$C$4*4</f>
-        <v>43497360</v>
+        <f aca="false">B432+$C$4*3</f>
+        <v>43477420</v>
       </c>
       <c r="J432" s="1" t="n">
         <f aca="false">B432+$C$4*4</f>
@@ -18107,8 +18193,8 @@
         <v>43559880</v>
       </c>
       <c r="I433" s="1" t="n">
-        <f aca="false">B433+$C$4*4</f>
-        <v>43599760</v>
+        <f aca="false">B433+$C$4*3</f>
+        <v>43579820</v>
       </c>
       <c r="J433" s="1" t="n">
         <f aca="false">B433+$C$4*4</f>
@@ -18148,8 +18234,8 @@
         <v>43662280</v>
       </c>
       <c r="I434" s="1" t="n">
-        <f aca="false">B434+$C$4*4</f>
-        <v>43702160</v>
+        <f aca="false">B434+$C$4*3</f>
+        <v>43682220</v>
       </c>
       <c r="J434" s="1" t="n">
         <f aca="false">B434+$C$4*4</f>
@@ -18189,8 +18275,8 @@
         <v>43764680</v>
       </c>
       <c r="I435" s="1" t="n">
-        <f aca="false">B435+$C$4*4</f>
-        <v>43804560</v>
+        <f aca="false">B435+$C$4*3</f>
+        <v>43784620</v>
       </c>
       <c r="J435" s="1" t="n">
         <f aca="false">B435+$C$4*4</f>
@@ -18230,8 +18316,8 @@
         <v>43867080</v>
       </c>
       <c r="I436" s="1" t="n">
-        <f aca="false">B436+$C$4*4</f>
-        <v>43906960</v>
+        <f aca="false">B436+$C$4*3</f>
+        <v>43887020</v>
       </c>
       <c r="J436" s="1" t="n">
         <f aca="false">B436+$C$4*4</f>
@@ -18271,8 +18357,8 @@
         <v>43969480</v>
       </c>
       <c r="I437" s="1" t="n">
-        <f aca="false">B437+$C$4*4</f>
-        <v>44009360</v>
+        <f aca="false">B437+$C$4*3</f>
+        <v>43989420</v>
       </c>
       <c r="J437" s="1" t="n">
         <f aca="false">B437+$C$4*4</f>
@@ -18312,8 +18398,8 @@
         <v>44071880</v>
       </c>
       <c r="I438" s="1" t="n">
-        <f aca="false">B438+$C$4*4</f>
-        <v>44111760</v>
+        <f aca="false">B438+$C$4*3</f>
+        <v>44091820</v>
       </c>
       <c r="J438" s="1" t="n">
         <f aca="false">B438+$C$4*4</f>
@@ -18353,8 +18439,8 @@
         <v>44174280</v>
       </c>
       <c r="I439" s="1" t="n">
-        <f aca="false">B439+$C$4*4</f>
-        <v>44214160</v>
+        <f aca="false">B439+$C$4*3</f>
+        <v>44194220</v>
       </c>
       <c r="J439" s="1" t="n">
         <f aca="false">B439+$C$4*4</f>
@@ -18394,8 +18480,8 @@
         <v>44276680</v>
       </c>
       <c r="I440" s="1" t="n">
-        <f aca="false">B440+$C$4*4</f>
-        <v>44316560</v>
+        <f aca="false">B440+$C$4*3</f>
+        <v>44296620</v>
       </c>
       <c r="J440" s="1" t="n">
         <f aca="false">B440+$C$4*4</f>
@@ -18435,8 +18521,8 @@
         <v>44379080</v>
       </c>
       <c r="I441" s="1" t="n">
-        <f aca="false">B441+$C$4*4</f>
-        <v>44418960</v>
+        <f aca="false">B441+$C$4*3</f>
+        <v>44399020</v>
       </c>
       <c r="J441" s="1" t="n">
         <f aca="false">B441+$C$4*4</f>
@@ -18476,8 +18562,8 @@
         <v>44481480</v>
       </c>
       <c r="I442" s="1" t="n">
-        <f aca="false">B442+$C$4*4</f>
-        <v>44521360</v>
+        <f aca="false">B442+$C$4*3</f>
+        <v>44501420</v>
       </c>
       <c r="J442" s="1" t="n">
         <f aca="false">B442+$C$4*4</f>
@@ -18517,8 +18603,8 @@
         <v>44583880</v>
       </c>
       <c r="I443" s="1" t="n">
-        <f aca="false">B443+$C$4*4</f>
-        <v>44623760</v>
+        <f aca="false">B443+$C$4*3</f>
+        <v>44603820</v>
       </c>
       <c r="J443" s="1" t="n">
         <f aca="false">B443+$C$4*4</f>
@@ -18558,8 +18644,8 @@
         <v>44686280</v>
       </c>
       <c r="I444" s="1" t="n">
-        <f aca="false">B444+$C$4*4</f>
-        <v>44726160</v>
+        <f aca="false">B444+$C$4*3</f>
+        <v>44706220</v>
       </c>
       <c r="J444" s="1" t="n">
         <f aca="false">B444+$C$4*4</f>
@@ -18599,8 +18685,8 @@
         <v>44788680</v>
       </c>
       <c r="I445" s="1" t="n">
-        <f aca="false">B445+$C$4*4</f>
-        <v>44828560</v>
+        <f aca="false">B445+$C$4*3</f>
+        <v>44808620</v>
       </c>
       <c r="J445" s="1" t="n">
         <f aca="false">B445+$C$4*4</f>
@@ -18640,8 +18726,8 @@
         <v>44891080</v>
       </c>
       <c r="I446" s="1" t="n">
-        <f aca="false">B446+$C$4*4</f>
-        <v>44930960</v>
+        <f aca="false">B446+$C$4*3</f>
+        <v>44911020</v>
       </c>
       <c r="J446" s="1" t="n">
         <f aca="false">B446+$C$4*4</f>
@@ -18681,8 +18767,8 @@
         <v>44993480</v>
       </c>
       <c r="I447" s="1" t="n">
-        <f aca="false">B447+$C$4*4</f>
-        <v>45033360</v>
+        <f aca="false">B447+$C$4*3</f>
+        <v>45013420</v>
       </c>
       <c r="J447" s="1" t="n">
         <f aca="false">B447+$C$4*4</f>
@@ -18722,8 +18808,8 @@
         <v>45095880</v>
       </c>
       <c r="I448" s="1" t="n">
-        <f aca="false">B448+$C$4*4</f>
-        <v>45135760</v>
+        <f aca="false">B448+$C$4*3</f>
+        <v>45115820</v>
       </c>
       <c r="J448" s="1" t="n">
         <f aca="false">B448+$C$4*4</f>
@@ -18763,8 +18849,8 @@
         <v>45198280</v>
       </c>
       <c r="I449" s="1" t="n">
-        <f aca="false">B449+$C$4*4</f>
-        <v>45238160</v>
+        <f aca="false">B449+$C$4*3</f>
+        <v>45218220</v>
       </c>
       <c r="J449" s="1" t="n">
         <f aca="false">B449+$C$4*4</f>
@@ -18804,8 +18890,8 @@
         <v>45300680</v>
       </c>
       <c r="I450" s="1" t="n">
-        <f aca="false">B450+$C$4*4</f>
-        <v>45340560</v>
+        <f aca="false">B450+$C$4*3</f>
+        <v>45320620</v>
       </c>
       <c r="J450" s="1" t="n">
         <f aca="false">B450+$C$4*4</f>
@@ -18845,8 +18931,8 @@
         <v>45403080</v>
       </c>
       <c r="I451" s="1" t="n">
-        <f aca="false">B451+$C$4*4</f>
-        <v>45442960</v>
+        <f aca="false">B451+$C$4*3</f>
+        <v>45423020</v>
       </c>
       <c r="J451" s="1" t="n">
         <f aca="false">B451+$C$4*4</f>
@@ -18886,8 +18972,8 @@
         <v>45505480</v>
       </c>
       <c r="I452" s="1" t="n">
-        <f aca="false">B452+$C$4*4</f>
-        <v>45545360</v>
+        <f aca="false">B452+$C$4*3</f>
+        <v>45525420</v>
       </c>
       <c r="J452" s="1" t="n">
         <f aca="false">B452+$C$4*4</f>
@@ -18927,8 +19013,8 @@
         <v>45607880</v>
       </c>
       <c r="I453" s="1" t="n">
-        <f aca="false">B453+$C$4*4</f>
-        <v>45647760</v>
+        <f aca="false">B453+$C$4*3</f>
+        <v>45627820</v>
       </c>
       <c r="J453" s="1" t="n">
         <f aca="false">B453+$C$4*4</f>
@@ -18968,8 +19054,8 @@
         <v>45710280</v>
       </c>
       <c r="I454" s="1" t="n">
-        <f aca="false">B454+$C$4*4</f>
-        <v>45750160</v>
+        <f aca="false">B454+$C$4*3</f>
+        <v>45730220</v>
       </c>
       <c r="J454" s="1" t="n">
         <f aca="false">B454+$C$4*4</f>
@@ -19009,8 +19095,8 @@
         <v>45812680</v>
       </c>
       <c r="I455" s="1" t="n">
-        <f aca="false">B455+$C$4*4</f>
-        <v>45852560</v>
+        <f aca="false">B455+$C$4*3</f>
+        <v>45832620</v>
       </c>
       <c r="J455" s="1" t="n">
         <f aca="false">B455+$C$4*4</f>
@@ -19050,8 +19136,8 @@
         <v>45915080</v>
       </c>
       <c r="I456" s="1" t="n">
-        <f aca="false">B456+$C$4*4</f>
-        <v>45954960</v>
+        <f aca="false">B456+$C$4*3</f>
+        <v>45935020</v>
       </c>
       <c r="J456" s="1" t="n">
         <f aca="false">B456+$C$4*4</f>
@@ -19091,8 +19177,8 @@
         <v>46017480</v>
       </c>
       <c r="I457" s="1" t="n">
-        <f aca="false">B457+$C$4*4</f>
-        <v>46057360</v>
+        <f aca="false">B457+$C$4*3</f>
+        <v>46037420</v>
       </c>
       <c r="J457" s="1" t="n">
         <f aca="false">B457+$C$4*4</f>
@@ -19132,8 +19218,8 @@
         <v>46119880</v>
       </c>
       <c r="I458" s="1" t="n">
-        <f aca="false">B458+$C$4*4</f>
-        <v>46159760</v>
+        <f aca="false">B458+$C$4*3</f>
+        <v>46139820</v>
       </c>
       <c r="J458" s="1" t="n">
         <f aca="false">B458+$C$4*4</f>
@@ -19173,8 +19259,8 @@
         <v>46222280</v>
       </c>
       <c r="I459" s="1" t="n">
-        <f aca="false">B459+$C$4*4</f>
-        <v>46262160</v>
+        <f aca="false">B459+$C$4*3</f>
+        <v>46242220</v>
       </c>
       <c r="J459" s="1" t="n">
         <f aca="false">B459+$C$4*4</f>
@@ -19214,8 +19300,8 @@
         <v>46324680</v>
       </c>
       <c r="I460" s="1" t="n">
-        <f aca="false">B460+$C$4*4</f>
-        <v>46364560</v>
+        <f aca="false">B460+$C$4*3</f>
+        <v>46344620</v>
       </c>
       <c r="J460" s="1" t="n">
         <f aca="false">B460+$C$4*4</f>
@@ -19255,8 +19341,8 @@
         <v>46427080</v>
       </c>
       <c r="I461" s="1" t="n">
-        <f aca="false">B461+$C$4*4</f>
-        <v>46466960</v>
+        <f aca="false">B461+$C$4*3</f>
+        <v>46447020</v>
       </c>
       <c r="J461" s="1" t="n">
         <f aca="false">B461+$C$4*4</f>
@@ -19296,8 +19382,8 @@
         <v>46529480</v>
       </c>
       <c r="I462" s="1" t="n">
-        <f aca="false">B462+$C$4*4</f>
-        <v>46569360</v>
+        <f aca="false">B462+$C$4*3</f>
+        <v>46549420</v>
       </c>
       <c r="J462" s="1" t="n">
         <f aca="false">B462+$C$4*4</f>
@@ -19337,8 +19423,8 @@
         <v>46631880</v>
       </c>
       <c r="I463" s="1" t="n">
-        <f aca="false">B463+$C$4*4</f>
-        <v>46671760</v>
+        <f aca="false">B463+$C$4*3</f>
+        <v>46651820</v>
       </c>
       <c r="J463" s="1" t="n">
         <f aca="false">B463+$C$4*4</f>
@@ -19378,8 +19464,8 @@
         <v>46734280</v>
       </c>
       <c r="I464" s="1" t="n">
-        <f aca="false">B464+$C$4*4</f>
-        <v>46774160</v>
+        <f aca="false">B464+$C$4*3</f>
+        <v>46754220</v>
       </c>
       <c r="J464" s="1" t="n">
         <f aca="false">B464+$C$4*4</f>
@@ -19419,8 +19505,8 @@
         <v>46836680</v>
       </c>
       <c r="I465" s="1" t="n">
-        <f aca="false">B465+$C$4*4</f>
-        <v>46876560</v>
+        <f aca="false">B465+$C$4*3</f>
+        <v>46856620</v>
       </c>
       <c r="J465" s="1" t="n">
         <f aca="false">B465+$C$4*4</f>
@@ -19460,8 +19546,8 @@
         <v>46939080</v>
       </c>
       <c r="I466" s="1" t="n">
-        <f aca="false">B466+$C$4*4</f>
-        <v>46978960</v>
+        <f aca="false">B466+$C$4*3</f>
+        <v>46959020</v>
       </c>
       <c r="J466" s="1" t="n">
         <f aca="false">B466+$C$4*4</f>
@@ -19501,8 +19587,8 @@
         <v>47041480</v>
       </c>
       <c r="I467" s="1" t="n">
-        <f aca="false">B467+$C$4*4</f>
-        <v>47081360</v>
+        <f aca="false">B467+$C$4*3</f>
+        <v>47061420</v>
       </c>
       <c r="J467" s="1" t="n">
         <f aca="false">B467+$C$4*4</f>
@@ -19542,8 +19628,8 @@
         <v>47143880</v>
       </c>
       <c r="I468" s="1" t="n">
-        <f aca="false">B468+$C$4*4</f>
-        <v>47183760</v>
+        <f aca="false">B468+$C$4*3</f>
+        <v>47163820</v>
       </c>
       <c r="J468" s="1" t="n">
         <f aca="false">B468+$C$4*4</f>
@@ -19583,8 +19669,8 @@
         <v>47246280</v>
       </c>
       <c r="I469" s="1" t="n">
-        <f aca="false">B469+$C$4*4</f>
-        <v>47286160</v>
+        <f aca="false">B469+$C$4*3</f>
+        <v>47266220</v>
       </c>
       <c r="J469" s="1" t="n">
         <f aca="false">B469+$C$4*4</f>
@@ -19624,8 +19710,8 @@
         <v>47348680</v>
       </c>
       <c r="I470" s="1" t="n">
-        <f aca="false">B470+$C$4*4</f>
-        <v>47388560</v>
+        <f aca="false">B470+$C$4*3</f>
+        <v>47368620</v>
       </c>
       <c r="J470" s="1" t="n">
         <f aca="false">B470+$C$4*4</f>
@@ -19665,8 +19751,8 @@
         <v>47451080</v>
       </c>
       <c r="I471" s="1" t="n">
-        <f aca="false">B471+$C$4*4</f>
-        <v>47490960</v>
+        <f aca="false">B471+$C$4*3</f>
+        <v>47471020</v>
       </c>
       <c r="J471" s="1" t="n">
         <f aca="false">B471+$C$4*4</f>
@@ -19706,8 +19792,8 @@
         <v>47553480</v>
       </c>
       <c r="I472" s="1" t="n">
-        <f aca="false">B472+$C$4*4</f>
-        <v>47593360</v>
+        <f aca="false">B472+$C$4*3</f>
+        <v>47573420</v>
       </c>
       <c r="J472" s="1" t="n">
         <f aca="false">B472+$C$4*4</f>
@@ -19747,8 +19833,8 @@
         <v>47655880</v>
       </c>
       <c r="I473" s="1" t="n">
-        <f aca="false">B473+$C$4*4</f>
-        <v>47695760</v>
+        <f aca="false">B473+$C$4*3</f>
+        <v>47675820</v>
       </c>
       <c r="J473" s="1" t="n">
         <f aca="false">B473+$C$4*4</f>
@@ -19788,8 +19874,8 @@
         <v>47758280</v>
       </c>
       <c r="I474" s="1" t="n">
-        <f aca="false">B474+$C$4*4</f>
-        <v>47798160</v>
+        <f aca="false">B474+$C$4*3</f>
+        <v>47778220</v>
       </c>
       <c r="J474" s="1" t="n">
         <f aca="false">B474+$C$4*4</f>
@@ -19829,8 +19915,8 @@
         <v>47860680</v>
       </c>
       <c r="I475" s="1" t="n">
-        <f aca="false">B475+$C$4*4</f>
-        <v>47900560</v>
+        <f aca="false">B475+$C$4*3</f>
+        <v>47880620</v>
       </c>
       <c r="J475" s="1" t="n">
         <f aca="false">B475+$C$4*4</f>
@@ -19870,8 +19956,8 @@
         <v>47963080</v>
       </c>
       <c r="I476" s="1" t="n">
-        <f aca="false">B476+$C$4*4</f>
-        <v>48002960</v>
+        <f aca="false">B476+$C$4*3</f>
+        <v>47983020</v>
       </c>
       <c r="J476" s="1" t="n">
         <f aca="false">B476+$C$4*4</f>
@@ -19911,8 +19997,8 @@
         <v>48065480</v>
       </c>
       <c r="I477" s="1" t="n">
-        <f aca="false">B477+$C$4*4</f>
-        <v>48105360</v>
+        <f aca="false">B477+$C$4*3</f>
+        <v>48085420</v>
       </c>
       <c r="J477" s="1" t="n">
         <f aca="false">B477+$C$4*4</f>
@@ -19952,8 +20038,8 @@
         <v>48167880</v>
       </c>
       <c r="I478" s="1" t="n">
-        <f aca="false">B478+$C$4*4</f>
-        <v>48207760</v>
+        <f aca="false">B478+$C$4*3</f>
+        <v>48187820</v>
       </c>
       <c r="J478" s="1" t="n">
         <f aca="false">B478+$C$4*4</f>
@@ -19993,8 +20079,8 @@
         <v>48270280</v>
       </c>
       <c r="I479" s="1" t="n">
-        <f aca="false">B479+$C$4*4</f>
-        <v>48310160</v>
+        <f aca="false">B479+$C$4*3</f>
+        <v>48290220</v>
       </c>
       <c r="J479" s="1" t="n">
         <f aca="false">B479+$C$4*4</f>
@@ -20034,8 +20120,8 @@
         <v>48372680</v>
       </c>
       <c r="I480" s="1" t="n">
-        <f aca="false">B480+$C$4*4</f>
-        <v>48412560</v>
+        <f aca="false">B480+$C$4*3</f>
+        <v>48392620</v>
       </c>
       <c r="J480" s="1" t="n">
         <f aca="false">B480+$C$4*4</f>
@@ -20075,8 +20161,8 @@
         <v>48475080</v>
       </c>
       <c r="I481" s="1" t="n">
-        <f aca="false">B481+$C$4*4</f>
-        <v>48514960</v>
+        <f aca="false">B481+$C$4*3</f>
+        <v>48495020</v>
       </c>
       <c r="J481" s="1" t="n">
         <f aca="false">B481+$C$4*4</f>
@@ -20116,8 +20202,8 @@
         <v>48577480</v>
       </c>
       <c r="I482" s="1" t="n">
-        <f aca="false">B482+$C$4*4</f>
-        <v>48617360</v>
+        <f aca="false">B482+$C$4*3</f>
+        <v>48597420</v>
       </c>
       <c r="J482" s="1" t="n">
         <f aca="false">B482+$C$4*4</f>
@@ -20157,8 +20243,8 @@
         <v>48679880</v>
       </c>
       <c r="I483" s="1" t="n">
-        <f aca="false">B483+$C$4*4</f>
-        <v>48719760</v>
+        <f aca="false">B483+$C$4*3</f>
+        <v>48699820</v>
       </c>
       <c r="J483" s="1" t="n">
         <f aca="false">B483+$C$4*4</f>
@@ -20198,8 +20284,8 @@
         <v>48782280</v>
       </c>
       <c r="I484" s="1" t="n">
-        <f aca="false">B484+$C$4*4</f>
-        <v>48822160</v>
+        <f aca="false">B484+$C$4*3</f>
+        <v>48802220</v>
       </c>
       <c r="J484" s="1" t="n">
         <f aca="false">B484+$C$4*4</f>
@@ -20239,8 +20325,8 @@
         <v>48884680</v>
       </c>
       <c r="I485" s="1" t="n">
-        <f aca="false">B485+$C$4*4</f>
-        <v>48924560</v>
+        <f aca="false">B485+$C$4*3</f>
+        <v>48904620</v>
       </c>
       <c r="J485" s="1" t="n">
         <f aca="false">B485+$C$4*4</f>
@@ -20280,8 +20366,8 @@
         <v>48987080</v>
       </c>
       <c r="I486" s="1" t="n">
-        <f aca="false">B486+$C$4*4</f>
-        <v>49026960</v>
+        <f aca="false">B486+$C$4*3</f>
+        <v>49007020</v>
       </c>
       <c r="J486" s="1" t="n">
         <f aca="false">B486+$C$4*4</f>
@@ -20321,8 +20407,8 @@
         <v>49089480</v>
       </c>
       <c r="I487" s="1" t="n">
-        <f aca="false">B487+$C$4*4</f>
-        <v>49129360</v>
+        <f aca="false">B487+$C$4*3</f>
+        <v>49109420</v>
       </c>
       <c r="J487" s="1" t="n">
         <f aca="false">B487+$C$4*4</f>
@@ -20362,8 +20448,8 @@
         <v>49191880</v>
       </c>
       <c r="I488" s="1" t="n">
-        <f aca="false">B488+$C$4*4</f>
-        <v>49231760</v>
+        <f aca="false">B488+$C$4*3</f>
+        <v>49211820</v>
       </c>
       <c r="J488" s="1" t="n">
         <f aca="false">B488+$C$4*4</f>
@@ -20403,8 +20489,8 @@
         <v>49294280</v>
       </c>
       <c r="I489" s="1" t="n">
-        <f aca="false">B489+$C$4*4</f>
-        <v>49334160</v>
+        <f aca="false">B489+$C$4*3</f>
+        <v>49314220</v>
       </c>
       <c r="J489" s="1" t="n">
         <f aca="false">B489+$C$4*4</f>
@@ -20444,8 +20530,8 @@
         <v>49396680</v>
       </c>
       <c r="I490" s="1" t="n">
-        <f aca="false">B490+$C$4*4</f>
-        <v>49436560</v>
+        <f aca="false">B490+$C$4*3</f>
+        <v>49416620</v>
       </c>
       <c r="J490" s="1" t="n">
         <f aca="false">B490+$C$4*4</f>
@@ -20485,8 +20571,8 @@
         <v>49499080</v>
       </c>
       <c r="I491" s="1" t="n">
-        <f aca="false">B491+$C$4*4</f>
-        <v>49538960</v>
+        <f aca="false">B491+$C$4*3</f>
+        <v>49519020</v>
       </c>
       <c r="J491" s="1" t="n">
         <f aca="false">B491+$C$4*4</f>
@@ -20526,8 +20612,8 @@
         <v>49601480</v>
       </c>
       <c r="I492" s="1" t="n">
-        <f aca="false">B492+$C$4*4</f>
-        <v>49641360</v>
+        <f aca="false">B492+$C$4*3</f>
+        <v>49621420</v>
       </c>
       <c r="J492" s="1" t="n">
         <f aca="false">B492+$C$4*4</f>
@@ -20567,8 +20653,8 @@
         <v>49703880</v>
       </c>
       <c r="I493" s="1" t="n">
-        <f aca="false">B493+$C$4*4</f>
-        <v>49743760</v>
+        <f aca="false">B493+$C$4*3</f>
+        <v>49723820</v>
       </c>
       <c r="J493" s="1" t="n">
         <f aca="false">B493+$C$4*4</f>
@@ -20608,8 +20694,8 @@
         <v>49806280</v>
       </c>
       <c r="I494" s="1" t="n">
-        <f aca="false">B494+$C$4*4</f>
-        <v>49846160</v>
+        <f aca="false">B494+$C$4*3</f>
+        <v>49826220</v>
       </c>
       <c r="J494" s="1" t="n">
         <f aca="false">B494+$C$4*4</f>
@@ -20649,8 +20735,8 @@
         <v>49908680</v>
       </c>
       <c r="I495" s="1" t="n">
-        <f aca="false">B495+$C$4*4</f>
-        <v>49948560</v>
+        <f aca="false">B495+$C$4*3</f>
+        <v>49928620</v>
       </c>
       <c r="J495" s="1" t="n">
         <f aca="false">B495+$C$4*4</f>
@@ -20690,8 +20776,8 @@
         <v>50011080</v>
       </c>
       <c r="I496" s="1" t="n">
-        <f aca="false">B496+$C$4*4</f>
-        <v>50050960</v>
+        <f aca="false">B496+$C$4*3</f>
+        <v>50031020</v>
       </c>
       <c r="J496" s="1" t="n">
         <f aca="false">B496+$C$4*4</f>
@@ -20731,8 +20817,8 @@
         <v>50113480</v>
       </c>
       <c r="I497" s="1" t="n">
-        <f aca="false">B497+$C$4*4</f>
-        <v>50153360</v>
+        <f aca="false">B497+$C$4*3</f>
+        <v>50133420</v>
       </c>
       <c r="J497" s="1" t="n">
         <f aca="false">B497+$C$4*4</f>
@@ -20772,8 +20858,8 @@
         <v>50215880</v>
       </c>
       <c r="I498" s="1" t="n">
-        <f aca="false">B498+$C$4*4</f>
-        <v>50255760</v>
+        <f aca="false">B498+$C$4*3</f>
+        <v>50235820</v>
       </c>
       <c r="J498" s="1" t="n">
         <f aca="false">B498+$C$4*4</f>
@@ -20813,8 +20899,8 @@
         <v>50318280</v>
       </c>
       <c r="I499" s="1" t="n">
-        <f aca="false">B499+$C$4*4</f>
-        <v>50358160</v>
+        <f aca="false">B499+$C$4*3</f>
+        <v>50338220</v>
       </c>
       <c r="J499" s="1" t="n">
         <f aca="false">B499+$C$4*4</f>
@@ -20854,8 +20940,8 @@
         <v>50420680</v>
       </c>
       <c r="I500" s="1" t="n">
-        <f aca="false">B500+$C$4*4</f>
-        <v>50460560</v>
+        <f aca="false">B500+$C$4*3</f>
+        <v>50440620</v>
       </c>
       <c r="J500" s="1" t="n">
         <f aca="false">B500+$C$4*4</f>
@@ -20895,8 +20981,8 @@
         <v>50523080</v>
       </c>
       <c r="I501" s="1" t="n">
-        <f aca="false">B501+$C$4*4</f>
-        <v>50562960</v>
+        <f aca="false">B501+$C$4*3</f>
+        <v>50543020</v>
       </c>
       <c r="J501" s="1" t="n">
         <f aca="false">B501+$C$4*4</f>
@@ -20936,8 +21022,8 @@
         <v>50625480</v>
       </c>
       <c r="I502" s="1" t="n">
-        <f aca="false">B502+$C$4*4</f>
-        <v>50665360</v>
+        <f aca="false">B502+$C$4*3</f>
+        <v>50645420</v>
       </c>
       <c r="J502" s="1" t="n">
         <f aca="false">B502+$C$4*4</f>
